--- a/beadando/RSA_runtime.xlsx
+++ b/beadando/RSA_runtime.xlsx
@@ -14,6 +14,10 @@
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="runtime2" localSheetId="0">Munka1!$H$2:$J$5</definedName>
+    <definedName name="runtime2_1" localSheetId="0">Munka1!$H$1:$J$4</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,8 +27,31 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="runtime2" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="C:\Users\szabokg\Desktop\Programozás\Parhuzamos_algoritmusok-3\beadando\RSA_2\RSA_2\bin\Debug\runtime2.txt" decimal="," thousands=" " semicolon="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="runtime21" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="852" sourceFile="C:\Users\szabokg\Desktop\Programozás\Parhuzamos_algoritmusok-3\beadando\RSA_2\RSA_2\bin\Debug\runtime2.txt" decimal="," thousands=" " semicolon="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>text_poet.txt</t>
   </si>
@@ -33,6 +60,15 @@
   </si>
   <si>
     <t>text_short_story.txt</t>
+  </si>
+  <si>
+    <t>pár. for teljes futási idő</t>
+  </si>
+  <si>
+    <t>pár. for dekódolás</t>
+  </si>
+  <si>
+    <t>pár. for kódolás</t>
   </si>
 </sst>
 </file>
@@ -93,10 +129,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -112,6 +151,3430 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="6">
+                  <c:v>pár. for teljes futási idő</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>pár. for kódolás</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>pár. for dekódolás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="6">
+                  <c:v>86.490899999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.728999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.734999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C115-48C7-AE1A-92C469F280C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="6">
+                  <c:v>pár. for teljes futási idő</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>pár. for kódolás</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>pár. for dekódolás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="6">
+                  <c:v>153.00899999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.464500000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.289099999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C115-48C7-AE1A-92C469F280C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="6">
+                  <c:v>pár. for teljes futási idő</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>pár. for kódolás</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>pár. for dekódolás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="6">
+                  <c:v>170.74459999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>115.0778</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.252700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C115-48C7-AE1A-92C469F280C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="435332712"/>
+        <c:axId val="435335008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="435332712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435335008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="435335008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435332712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7276-461B-B9F1-0C660E3FBAFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7276-461B-B9F1-0C660E3FBAFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7276-461B-B9F1-0C660E3FBAFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7276-461B-B9F1-0C660E3FBAFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7276-461B-B9F1-0C660E3FBAFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7276-461B-B9F1-0C660E3FBAFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pár. for teljes futási idő</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$H$2:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>86.490899999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153.00899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170.74459999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7276-461B-B9F1-0C660E3FBAFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pár. for kódolás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$I$2:$I$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>69.728999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.464500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115.0778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7276-461B-B9F1-0C660E3FBAFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pár. for dekódolás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="hu-HU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$J$2:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.734999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.289099999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.252700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-7276-461B-B9F1-0C660E3FBAFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="441496032"/>
+        <c:axId val="441502264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="441496032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441502264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441502264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441496032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="222">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="runtime2_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="runtime2" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,13 +3842,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -396,54 +3862,79 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
+        <v>86.490899999999996</v>
+      </c>
+      <c r="I2" s="3">
+        <v>69.728999999999999</v>
+      </c>
+      <c r="J2" s="3">
+        <v>11.734999999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>153.00899999999999</v>
+      </c>
+      <c r="I3" s="3">
+        <v>85.464500000000001</v>
+      </c>
+      <c r="J3" s="3">
+        <v>48.289099999999998</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>170.74459999999999</v>
+      </c>
+      <c r="I4" s="3">
+        <v>115.0778</v>
+      </c>
+      <c r="J4" s="3">
+        <v>20.252700000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/beadando/RSA_runtime.xlsx
+++ b/beadando/RSA_runtime.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$J$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$J$14</definedName>
     <definedName name="runtime2" localSheetId="0">Munka1!$H$2:$J$5</definedName>
     <definedName name="runtime2_1" localSheetId="0">Munka1!$H$1:$J$4</definedName>
   </definedNames>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>text_poet.txt</t>
   </si>
@@ -108,15 +108,9 @@
     <t>text_Madach.txt</t>
   </si>
   <si>
-    <t>text_Dal.txt</t>
-  </si>
-  <si>
     <t>text_Agnes.txt</t>
   </si>
   <si>
-    <t>text_JozsefA.txt</t>
-  </si>
-  <si>
     <t>text_JozsefA2.txt</t>
   </si>
   <si>
@@ -130,6 +124,33 @@
   </si>
   <si>
     <t>text_Orkeny4.txt</t>
+  </si>
+  <si>
+    <t>text_Orkeny5.txt</t>
+  </si>
+  <si>
+    <t>text_Orkeny6.txt</t>
+  </si>
+  <si>
+    <t>text_Orkeny7.txt</t>
+  </si>
+  <si>
+    <t>text_Orkeny8.txt</t>
+  </si>
+  <si>
+    <t>text_Orkeny13.txt</t>
+  </si>
+  <si>
+    <t>text_quote2.txt</t>
+  </si>
+  <si>
+    <t>text_quote3.txt</t>
+  </si>
+  <si>
+    <t>text_quote4.txt</t>
+  </si>
+  <si>
+    <t>text_quote5.txt</t>
   </si>
 </sst>
 </file>
@@ -308,7 +329,7 @@
             <c:strRef>
               <c:f>Munka1!$A$2:$G$31</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>text_Abrand.txt</c:v>
                 </c:pt>
@@ -325,57 +346,78 @@
                   <c:v>text_Agnes.txt</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>text_Dal.txt</c:v>
+                  <c:v>text_JozsefA2.txt</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>text_JozsefA.txt</c:v>
+                  <c:v>text_Madach.txt</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>text_JozsefA2.txt</c:v>
+                  <c:v>text_mama.txt</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>text_Madach.txt</c:v>
+                  <c:v>text_oda.txt</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>text_mama.txt</c:v>
+                  <c:v>text_Orkeny.txt</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>text_oda.txt</c:v>
+                  <c:v>text_Orkeny13.txt</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>text_Orkeny.txt</c:v>
+                  <c:v>text_Orkeny2.txt</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>text_Orkeny2.txt</c:v>
+                  <c:v>text_Orkeny3.txt</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>text_Orkeny3.txt</c:v>
+                  <c:v>text_Orkeny4.txt</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>text_Orkeny4.txt</c:v>
+                  <c:v>text_Orkeny5.txt</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>text_Orkeny6.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>text_Orkeny7.txt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>text_Orkeny8.txt</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>text_Petofi.txt</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>text_Petofi2.txt</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>text_Petofi3.txt</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>text_Petofi4.txt</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>text_poet.txt</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>text_quote.txt</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
+                  <c:v>text_quote2.txt</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>text_quote3.txt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>text_quote4.txt</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>text_quote5.txt</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>text_short_story.txt</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="29">
                   <c:v>text_Szozat.txt</c:v>
                 </c:pt>
               </c:strCache>
@@ -383,10 +425,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$H$2:$H$30</c:f>
+              <c:f>Munka1!$H$2:$H$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>83.945400000000006</c:v>
                 </c:pt>
@@ -403,58 +445,70 @@
                   <c:v>132.357</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.698700000000002</c:v>
+                  <c:v>87.919799999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>122.51600000000001</c:v>
+                  <c:v>137.34829999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>87.919799999999995</c:v>
+                  <c:v>108.0232</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>137.34829999999999</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>108.0232</c:v>
+                  <c:v>86.981200000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>153</c:v>
+                  <c:v>149.84399999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>86.981200000000001</c:v>
+                  <c:v>134.70830000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>134.70830000000001</c:v>
+                  <c:v>135.48679999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>135.48679999999999</c:v>
+                  <c:v>131.9075</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>131.9075</c:v>
+                  <c:v>284.3775</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>219.97749999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>177.81270000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>182.0719</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>112.7855</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>126.8267</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>124.893</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>156.28819999999999</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>86.490899999999996</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>122.2186</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>170.74459999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>147.1557</c:v>
+                <c:pt idx="24">
+                  <c:v>73.212199999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>146.92599999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>142.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -508,7 +562,7 @@
             <c:strRef>
               <c:f>Munka1!$A$2:$G$31</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>text_Abrand.txt</c:v>
                 </c:pt>
@@ -525,57 +579,78 @@
                   <c:v>text_Agnes.txt</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>text_Dal.txt</c:v>
+                  <c:v>text_JozsefA2.txt</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>text_JozsefA.txt</c:v>
+                  <c:v>text_Madach.txt</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>text_JozsefA2.txt</c:v>
+                  <c:v>text_mama.txt</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>text_Madach.txt</c:v>
+                  <c:v>text_oda.txt</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>text_mama.txt</c:v>
+                  <c:v>text_Orkeny.txt</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>text_oda.txt</c:v>
+                  <c:v>text_Orkeny13.txt</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>text_Orkeny.txt</c:v>
+                  <c:v>text_Orkeny2.txt</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>text_Orkeny2.txt</c:v>
+                  <c:v>text_Orkeny3.txt</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>text_Orkeny3.txt</c:v>
+                  <c:v>text_Orkeny4.txt</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>text_Orkeny4.txt</c:v>
+                  <c:v>text_Orkeny5.txt</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>text_Orkeny6.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>text_Orkeny7.txt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>text_Orkeny8.txt</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>text_Petofi.txt</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>text_Petofi2.txt</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>text_Petofi3.txt</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>text_Petofi4.txt</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>text_poet.txt</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>text_quote.txt</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
+                  <c:v>text_quote2.txt</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>text_quote3.txt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>text_quote4.txt</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>text_quote5.txt</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>text_short_story.txt</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="29">
                   <c:v>text_Szozat.txt</c:v>
                 </c:pt>
               </c:strCache>
@@ -583,10 +658,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$I$2:$I$30</c:f>
+              <c:f>Munka1!$I$2:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>62.582900000000002</c:v>
                 </c:pt>
@@ -603,58 +678,70 @@
                   <c:v>101.0622</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77.130799999999994</c:v>
+                  <c:v>74.447500000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.2864</c:v>
+                  <c:v>113.0341</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.447500000000005</c:v>
+                  <c:v>86.8369</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>113.0341</c:v>
+                  <c:v>114.2633</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86.8369</c:v>
+                  <c:v>66.587100000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>114.2633</c:v>
+                  <c:v>103.8426</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>66.587100000000007</c:v>
+                  <c:v>83.052899999999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>83.052899999999994</c:v>
+                  <c:v>60.474499999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>60.474499999999999</c:v>
+                  <c:v>64.322699999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>64.322699999999998</c:v>
+                  <c:v>167.11179999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>151.27160000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.616699999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97.701300000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>90.436599999999999</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>98.930700000000002</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>100.164</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>109.98860000000001</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>69.728999999999999</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>98.031099999999995</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>115.0778</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>97.942300000000003</c:v>
+                <c:pt idx="24">
+                  <c:v>37.167700000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>128.285</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>124.5444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -708,7 +795,7 @@
             <c:strRef>
               <c:f>Munka1!$A$2:$G$31</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>text_Abrand.txt</c:v>
                 </c:pt>
@@ -725,57 +812,78 @@
                   <c:v>text_Agnes.txt</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>text_Dal.txt</c:v>
+                  <c:v>text_JozsefA2.txt</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>text_JozsefA.txt</c:v>
+                  <c:v>text_Madach.txt</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>text_JozsefA2.txt</c:v>
+                  <c:v>text_mama.txt</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>text_Madach.txt</c:v>
+                  <c:v>text_oda.txt</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>text_mama.txt</c:v>
+                  <c:v>text_Orkeny.txt</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>text_oda.txt</c:v>
+                  <c:v>text_Orkeny13.txt</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>text_Orkeny.txt</c:v>
+                  <c:v>text_Orkeny2.txt</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>text_Orkeny2.txt</c:v>
+                  <c:v>text_Orkeny3.txt</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>text_Orkeny3.txt</c:v>
+                  <c:v>text_Orkeny4.txt</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>text_Orkeny4.txt</c:v>
+                  <c:v>text_Orkeny5.txt</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>text_Orkeny6.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>text_Orkeny7.txt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>text_Orkeny8.txt</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>text_Petofi.txt</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>text_Petofi2.txt</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>text_Petofi3.txt</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>text_Petofi4.txt</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>text_poet.txt</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>text_quote.txt</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
+                  <c:v>text_quote2.txt</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>text_quote3.txt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>text_quote4.txt</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>text_quote5.txt</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>text_short_story.txt</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="29">
                   <c:v>text_Szozat.txt</c:v>
                 </c:pt>
               </c:strCache>
@@ -783,10 +891,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$J$2:$J$30</c:f>
+              <c:f>Munka1!$J$2:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>11.3985</c:v>
                 </c:pt>
@@ -803,58 +911,70 @@
                   <c:v>17.724799999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.0739999999999998</c:v>
+                  <c:v>4.6528</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.419700000000001</c:v>
+                  <c:v>11.242800000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6528</c:v>
+                  <c:v>13.443199999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.242800000000001</c:v>
+                  <c:v>16.509699999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.443199999999999</c:v>
+                  <c:v>5.8864999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.509699999999999</c:v>
+                  <c:v>30.6584</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8864999999999998</c:v>
+                  <c:v>37.425699999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.425699999999999</c:v>
+                  <c:v>36.453499999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36.453499999999998</c:v>
+                  <c:v>25.665199999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.665199999999999</c:v>
+                  <c:v>55.639299999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>21.405200000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.389700000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.869399999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>10.8078</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>12.115399999999999</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>15.172700000000001</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>30.645700000000001</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>11.734999999999999</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>10.963699999999999</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>20.252700000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>33.336500000000001</c:v>
+                <c:pt idx="24">
+                  <c:v>30.786200000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.035399999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.210000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1610,16 +1730,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>59307</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>34685</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>89858</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>178458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>354043</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>136045</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>26957</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>134789</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1914,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2026,7 +2146,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2045,8 +2165,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>18</v>
+      <c r="A7" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2055,18 +2175,18 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3">
-        <v>97.698700000000002</v>
+        <v>87.919799999999995</v>
       </c>
       <c r="I7" s="3">
-        <v>77.130799999999994</v>
+        <v>74.447500000000005</v>
       </c>
       <c r="J7" s="3">
-        <v>9.0739999999999998</v>
+        <v>4.6528</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2075,18 +2195,18 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3">
-        <v>122.51600000000001</v>
+        <v>137.34829999999999</v>
       </c>
       <c r="I8" s="3">
-        <v>91.2864</v>
+        <v>113.0341</v>
       </c>
       <c r="J8" s="3">
-        <v>15.419700000000001</v>
+        <v>11.242800000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2095,18 +2215,18 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3">
-        <v>87.919799999999995</v>
+        <v>108.0232</v>
       </c>
       <c r="I9" s="3">
-        <v>74.447500000000005</v>
+        <v>86.8369</v>
       </c>
       <c r="J9" s="3">
-        <v>4.6528</v>
+        <v>13.443199999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2115,18 +2235,18 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3">
-        <v>137.34829999999999</v>
+        <v>153</v>
       </c>
       <c r="I10" s="3">
-        <v>113.0341</v>
+        <v>114.2633</v>
       </c>
       <c r="J10" s="3">
-        <v>11.242800000000001</v>
+        <v>16.509699999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
+      <c r="A11" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2135,18 +2255,18 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3">
-        <v>108.0232</v>
+        <v>86.981200000000001</v>
       </c>
       <c r="I11" s="3">
-        <v>86.8369</v>
+        <v>66.587100000000007</v>
       </c>
       <c r="J11" s="3">
-        <v>13.443199999999999</v>
+        <v>5.8864999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2155,18 +2275,18 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3">
-        <v>153</v>
+        <v>149.84399999999999</v>
       </c>
       <c r="I12" s="3">
-        <v>114.2633</v>
+        <v>103.8426</v>
       </c>
       <c r="J12" s="3">
-        <v>16.509699999999999</v>
+        <v>30.6584</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>22</v>
+      <c r="A13" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2175,18 +2295,18 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3">
-        <v>86.981200000000001</v>
+        <v>134.70830000000001</v>
       </c>
       <c r="I13" s="3">
-        <v>66.587100000000007</v>
+        <v>83.052899999999994</v>
       </c>
       <c r="J13" s="3">
-        <v>5.8864999999999998</v>
+        <v>37.425699999999999</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2195,18 +2315,18 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3">
-        <v>134.70830000000001</v>
+        <v>135.48679999999999</v>
       </c>
       <c r="I14" s="3">
-        <v>83.052899999999994</v>
+        <v>60.474499999999999</v>
       </c>
       <c r="J14" s="3">
-        <v>37.425699999999999</v>
+        <v>36.453499999999998</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2215,18 +2335,18 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3">
-        <v>135.48679999999999</v>
+        <v>131.9075</v>
       </c>
       <c r="I15" s="3">
-        <v>60.474499999999999</v>
+        <v>64.322699999999998</v>
       </c>
       <c r="J15" s="3">
-        <v>36.453499999999998</v>
+        <v>25.665199999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2235,18 +2355,18 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
-        <v>131.9075</v>
+        <v>284.3775</v>
       </c>
       <c r="I16" s="3">
-        <v>64.322699999999998</v>
+        <v>167.11179999999999</v>
       </c>
       <c r="J16" s="3">
-        <v>25.665199999999999</v>
+        <v>55.639299999999999</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
+      <c r="A17" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2255,18 +2375,18 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
-        <v>112.7855</v>
+        <v>219.97749999999999</v>
       </c>
       <c r="I17" s="3">
-        <v>90.436599999999999</v>
+        <v>151.27160000000001</v>
       </c>
       <c r="J17" s="3">
-        <v>10.8078</v>
+        <v>21.405200000000001</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2275,18 +2395,18 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <v>126.8267</v>
+        <v>177.81270000000001</v>
       </c>
       <c r="I18" s="3">
-        <v>98.930700000000002</v>
+        <v>99.616699999999994</v>
       </c>
       <c r="J18" s="3">
-        <v>12.115399999999999</v>
+        <v>25.389700000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2295,18 +2415,18 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3">
-        <v>124.893</v>
+        <v>182.0719</v>
       </c>
       <c r="I19" s="3">
-        <v>100.164</v>
+        <v>97.701300000000003</v>
       </c>
       <c r="J19" s="3">
-        <v>15.172700000000001</v>
+        <v>34.869399999999999</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>15</v>
+      <c r="A20" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2315,18 +2435,18 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
-        <v>156.28819999999999</v>
+        <v>112.7855</v>
       </c>
       <c r="I20" s="3">
-        <v>109.98860000000001</v>
+        <v>90.436599999999999</v>
       </c>
       <c r="J20" s="3">
-        <v>30.645700000000001</v>
+        <v>10.8078</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2335,18 +2455,18 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
-        <v>86.490899999999996</v>
+        <v>126.8267</v>
       </c>
       <c r="I21" s="3">
-        <v>69.728999999999999</v>
+        <v>98.930700000000002</v>
       </c>
       <c r="J21" s="3">
-        <v>11.734999999999999</v>
+        <v>12.115399999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2355,18 +2475,18 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
-        <v>122.2186</v>
+        <v>124.893</v>
       </c>
       <c r="I22" s="3">
-        <v>98.031099999999995</v>
+        <v>100.164</v>
       </c>
       <c r="J22" s="3">
-        <v>10.963699999999999</v>
+        <v>15.172700000000001</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>2</v>
+      <c r="A23" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2375,18 +2495,18 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3">
-        <v>170.74459999999999</v>
+        <v>156.28819999999999</v>
       </c>
       <c r="I23" s="3">
-        <v>115.0778</v>
+        <v>109.98860000000001</v>
       </c>
       <c r="J23" s="3">
-        <v>20.252700000000001</v>
+        <v>30.645700000000001</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2395,103 +2515,159 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3">
-        <v>147.1557</v>
+        <v>86.490899999999996</v>
       </c>
       <c r="I24" s="3">
-        <v>97.942300000000003</v>
+        <v>69.728999999999999</v>
       </c>
       <c r="J24" s="3">
-        <v>33.336500000000001</v>
+        <v>11.734999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="H25" s="3">
+        <v>122.2186</v>
+      </c>
+      <c r="I25" s="3">
+        <v>98.031099999999995</v>
+      </c>
+      <c r="J25" s="3">
+        <v>10.963699999999999</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="H26" s="3">
+        <v>73.212199999999996</v>
+      </c>
+      <c r="I26" s="3">
+        <v>37.167700000000004</v>
+      </c>
+      <c r="J26" s="3">
+        <v>30.786200000000001</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="H27" s="3">
+        <v>146.92599999999999</v>
+      </c>
+      <c r="I27" s="3">
+        <v>128.285</v>
+      </c>
+      <c r="J27" s="3">
+        <v>10.035399999999999</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="H28" s="3">
+        <v>142.94</v>
+      </c>
+      <c r="I28" s="3">
+        <v>124.5444</v>
+      </c>
+      <c r="J28" s="3">
+        <v>10.210000000000001</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="H29" s="3">
+        <v>90.232900000000001</v>
+      </c>
+      <c r="I29" s="3">
+        <v>73.334599999999995</v>
+      </c>
+      <c r="J29" s="3">
+        <v>9.94</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="H30" s="3">
+        <v>170.74459999999999</v>
+      </c>
+      <c r="I30" s="3">
+        <v>115.0778</v>
+      </c>
+      <c r="J30" s="3">
+        <v>20.252700000000001</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="H31" s="3">
+        <v>147.1557</v>
+      </c>
+      <c r="I31" s="3">
+        <v>97.942300000000003</v>
+      </c>
+      <c r="J31" s="3">
+        <v>33.336500000000001</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J16">
-    <sortState ref="A2:J24">
-      <sortCondition ref="A1:A16"/>
+  <autoFilter ref="A1:J14">
+    <sortState ref="A2:J31">
+      <sortCondition ref="A1:A14"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/beadando/RSA_runtime.xlsx
+++ b/beadando/RSA_runtime.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>text_poet.txt</t>
   </si>
@@ -144,13 +144,7 @@
     <t>text_quote2.txt</t>
   </si>
   <si>
-    <t>text_quote3.txt</t>
-  </si>
-  <si>
     <t>text_quote4.txt</t>
-  </si>
-  <si>
-    <t>text_quote5.txt</t>
   </si>
 </sst>
 </file>
@@ -327,9 +321,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Munka1!$A$2:$G$31</c:f>
+              <c:f>Munka1!$A$2:$G$29</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>text_Abrand.txt</c:v>
                 </c:pt>
@@ -406,18 +400,12 @@
                   <c:v>text_quote2.txt</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>text_quote3.txt</c:v>
+                  <c:v>text_quote4.txt</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>text_quote4.txt</c:v>
+                  <c:v>text_short_story.txt</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>text_quote5.txt</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>text_short_story.txt</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>text_Szozat.txt</c:v>
                 </c:pt>
               </c:strCache>
@@ -425,10 +413,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$H$2:$H$28</c:f>
+              <c:f>Munka1!$H$2:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>83.945400000000006</c:v>
                 </c:pt>
@@ -505,9 +493,6 @@
                   <c:v>73.212199999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>146.92599999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>142.94</c:v>
                 </c:pt>
               </c:numCache>
@@ -560,9 +545,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Munka1!$A$2:$G$31</c:f>
+              <c:f>Munka1!$A$2:$G$29</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>text_Abrand.txt</c:v>
                 </c:pt>
@@ -639,18 +624,12 @@
                   <c:v>text_quote2.txt</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>text_quote3.txt</c:v>
+                  <c:v>text_quote4.txt</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>text_quote4.txt</c:v>
+                  <c:v>text_short_story.txt</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>text_quote5.txt</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>text_short_story.txt</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>text_Szozat.txt</c:v>
                 </c:pt>
               </c:strCache>
@@ -658,10 +637,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$I$2:$I$28</c:f>
+              <c:f>Munka1!$I$2:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>62.582900000000002</c:v>
                 </c:pt>
@@ -738,9 +717,6 @@
                   <c:v>37.167700000000004</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>128.285</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>124.5444</c:v>
                 </c:pt>
               </c:numCache>
@@ -793,9 +769,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Munka1!$A$2:$G$31</c:f>
+              <c:f>Munka1!$A$2:$G$29</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>text_Abrand.txt</c:v>
                 </c:pt>
@@ -872,18 +848,12 @@
                   <c:v>text_quote2.txt</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>text_quote3.txt</c:v>
+                  <c:v>text_quote4.txt</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>text_quote4.txt</c:v>
+                  <c:v>text_short_story.txt</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>text_quote5.txt</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>text_short_story.txt</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>text_Szozat.txt</c:v>
                 </c:pt>
               </c:strCache>
@@ -891,10 +861,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$J$2:$J$28</c:f>
+              <c:f>Munka1!$J$2:$J$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>11.3985</c:v>
                 </c:pt>
@@ -971,9 +941,6 @@
                   <c:v>30.786200000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>10.035399999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>10.210000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -1732,13 +1699,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>89858</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>178458</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>26957</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>134789</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1762,11 +1729,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="runtime2" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="runtime2_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="runtime2_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="runtime2" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2032,10 +1999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2565,7 +2532,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="3"/>
@@ -2575,18 +2542,18 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3">
-        <v>146.92599999999999</v>
+        <v>142.94</v>
       </c>
       <c r="I27" s="3">
-        <v>128.285</v>
+        <v>124.5444</v>
       </c>
       <c r="J27" s="3">
-        <v>10.035399999999999</v>
+        <v>10.210000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2595,18 +2562,18 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
-        <v>142.94</v>
+        <v>170.74459999999999</v>
       </c>
       <c r="I28" s="3">
-        <v>124.5444</v>
+        <v>115.0778</v>
       </c>
       <c r="J28" s="3">
-        <v>10.210000000000001</v>
+        <v>20.252700000000001</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2615,52 +2582,12 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3">
-        <v>90.232900000000001</v>
+        <v>147.1557</v>
       </c>
       <c r="I29" s="3">
-        <v>73.334599999999995</v>
+        <v>97.942300000000003</v>
       </c>
       <c r="J29" s="3">
-        <v>9.94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3">
-        <v>170.74459999999999</v>
-      </c>
-      <c r="I30" s="3">
-        <v>115.0778</v>
-      </c>
-      <c r="J30" s="3">
-        <v>20.252700000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3">
-        <v>147.1557</v>
-      </c>
-      <c r="I31" s="3">
-        <v>97.942300000000003</v>
-      </c>
-      <c r="J31" s="3">
         <v>33.336500000000001</v>
       </c>
     </row>

--- a/beadando/RSA_runtime.xlsx
+++ b/beadando/RSA_runtime.xlsx
@@ -15,9 +15,9 @@
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$J$14</definedName>
-    <definedName name="runtime2" localSheetId="0">Munka1!$H$2:$J$5</definedName>
-    <definedName name="runtime2_1" localSheetId="0">Munka1!$H$1:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Munka1!$A$1:$M$14</definedName>
+    <definedName name="runtime2" localSheetId="0">Munka1!$K$2:$M$5</definedName>
+    <definedName name="runtime2_1" localSheetId="0">Munka1!$K$1:$M$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>text_poet.txt</t>
   </si>
@@ -145,6 +145,45 @@
   </si>
   <si>
     <t>text_quote4.txt</t>
+  </si>
+  <si>
+    <t>Összeg</t>
+  </si>
+  <si>
+    <t>Átlag</t>
+  </si>
+  <si>
+    <t>Göngyölített összeg</t>
+  </si>
+  <si>
+    <t>Darab</t>
+  </si>
+  <si>
+    <t>OPENMP dekódolás</t>
+  </si>
+  <si>
+    <t>Szekvenciális össz idő</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Párhuzamosítás össz idő</t>
+  </si>
+  <si>
+    <t>OPENMP össz idő</t>
+  </si>
+  <si>
+    <t>Szek. kódolás</t>
+  </si>
+  <si>
+    <t>Párh. kódolás</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OPENMP kódolás</t>
+  </si>
+  <si>
+    <t>Szek. dekódolás</t>
+  </si>
+  <si>
+    <t>Párh. dekódolás</t>
   </si>
 </sst>
 </file>
@@ -286,11 +325,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Munka1!$H$1</c:f>
+              <c:f>Munka1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pár. for teljes futási idő</c:v>
+                  <c:v>Szekvenciális össz idő</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -321,7 +360,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Munka1!$A$2:$G$29</c:f>
+              <c:f>Munka1!$A$2:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
@@ -413,87 +452,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$H$2:$H$27</c:f>
+              <c:f>Munka1!$B$2:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>83.945400000000006</c:v>
+                  <c:v>15205</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>140.3021</c:v>
+                  <c:v>16486</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>158.9794</c:v>
+                  <c:v>6725</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>132.62459999999999</c:v>
+                  <c:v>15757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>132.357</c:v>
+                  <c:v>6248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.919799999999995</c:v>
+                  <c:v>9307</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>137.34829999999999</c:v>
+                  <c:v>15089</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>108.0232</c:v>
+                  <c:v>6831</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>153</c:v>
+                  <c:v>8971</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86.981200000000001</c:v>
+                  <c:v>19896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>149.84399999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>134.70830000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>135.48679999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>131.9075</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>284.3775</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>219.97749999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>177.81270000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>182.0719</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>112.7855</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>126.8267</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>124.893</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>156.28819999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>86.490899999999996</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>122.2186</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>73.212199999999996</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>142.94</c:v>
+                  <c:v>20836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -501,7 +495,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C96F-440F-9833-97BED7C66A40}"/>
+              <c16:uniqueId val="{00000000-CEC2-4F7C-AD0A-2561AE0A20E1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -510,11 +504,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Munka1!$I$1</c:f>
+              <c:f>Munka1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pár. for kódolás</c:v>
+                  <c:v> Párhuzamosítás össz idő</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -545,7 +539,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Munka1!$A$2:$G$29</c:f>
+              <c:f>Munka1!$A$2:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
@@ -637,87 +631,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$I$2:$I$27</c:f>
+              <c:f>Munka1!$C$2:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>62.582900000000002</c:v>
+                  <c:v>79583</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>106.357</c:v>
+                  <c:v>72201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110.8009</c:v>
+                  <c:v>65886</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>103.9062</c:v>
+                  <c:v>103224</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101.0622</c:v>
+                  <c:v>541669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.447500000000005</c:v>
+                  <c:v>48216</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>113.0341</c:v>
+                  <c:v>251521</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>86.8369</c:v>
+                  <c:v>83664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114.2633</c:v>
+                  <c:v>480584</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>66.587100000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>103.8426</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>83.052899999999994</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60.474499999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>64.322699999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>167.11179999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>151.27160000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>99.616699999999994</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>97.701300000000003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>90.436599999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>98.930700000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>100.164</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>109.98860000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>69.728999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>98.031099999999995</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>37.167700000000004</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>124.5444</c:v>
+                  <c:v>396303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -725,7 +674,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C96F-440F-9833-97BED7C66A40}"/>
+              <c16:uniqueId val="{00000001-CEC2-4F7C-AD0A-2561AE0A20E1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -734,11 +683,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Munka1!$J$1</c:f>
+              <c:f>Munka1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pár. for dekódolás</c:v>
+                  <c:v>OPENMP össz idő</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -769,7 +718,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Munka1!$A$2:$G$29</c:f>
+              <c:f>Munka1!$A$2:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
@@ -861,87 +810,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$J$2:$J$27</c:f>
+              <c:f>Munka1!$D$2:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>11.3985</c:v>
+                  <c:v>3027</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.294599999999999</c:v>
+                  <c:v>2359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.663699999999999</c:v>
+                  <c:v>6678</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.084900000000001</c:v>
+                  <c:v>5806</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.724799999999998</c:v>
+                  <c:v>5310</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6528</c:v>
+                  <c:v>5389</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.242800000000001</c:v>
+                  <c:v>12392</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.443199999999999</c:v>
+                  <c:v>14158</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.509699999999999</c:v>
+                  <c:v>20411</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.8864999999999998</c:v>
+                  <c:v>26129</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.6584</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>37.425699999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>36.453499999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25.665199999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>55.639299999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21.405200000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25.389700000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>34.869399999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>10.8078</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.115399999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15.172700000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>30.645700000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11.734999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10.963699999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>30.786200000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10.210000000000001</c:v>
+                  <c:v>24276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -949,7 +853,1099 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C96F-440F-9833-97BED7C66A40}"/>
+              <c16:uniqueId val="{00000002-CEC2-4F7C-AD0A-2561AE0A20E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Szek. kódolás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>text_Abrand.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_Ady.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_Ady2.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>text_Ady3.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>text_Agnes.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>text_JozsefA2.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>text_Madach.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>text_mama.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>text_oda.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>text_Orkeny.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>text_Orkeny13.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>text_Orkeny2.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>text_Orkeny3.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>text_Orkeny4.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>text_Orkeny5.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>text_Orkeny6.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>text_Orkeny7.txt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>text_Orkeny8.txt</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>text_Petofi.txt</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>text_Petofi2.txt</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>text_Petofi3.txt</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>text_Petofi4.txt</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>text_quote2.txt</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>text_quote4.txt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>text_Szozat.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$E$2:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>13528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CEC2-4F7C-AD0A-2561AE0A20E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Párh. kódolás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>text_Abrand.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_Ady.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_Ady2.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>text_Ady3.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>text_Agnes.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>text_JozsefA2.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>text_Madach.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>text_mama.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>text_oda.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>text_Orkeny.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>text_Orkeny13.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>text_Orkeny2.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>text_Orkeny3.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>text_Orkeny4.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>text_Orkeny5.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>text_Orkeny6.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>text_Orkeny7.txt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>text_Orkeny8.txt</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>text_Petofi.txt</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>text_Petofi2.txt</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>text_Petofi3.txt</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>text_Petofi4.txt</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>text_quote2.txt</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>text_quote4.txt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>text_Szozat.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$F$2:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>36995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42254</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>285173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17032</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>122214</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42058</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>242186</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>394860</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>665843</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CEC2-4F7C-AD0A-2561AE0A20E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> OPENMP kódolás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>text_Abrand.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_Ady.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_Ady2.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>text_Ady3.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>text_Agnes.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>text_JozsefA2.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>text_Madach.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>text_mama.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>text_oda.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>text_Orkeny.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>text_Orkeny13.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>text_Orkeny2.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>text_Orkeny3.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>text_Orkeny4.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>text_Orkeny5.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>text_Orkeny6.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>text_Orkeny7.txt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>text_Orkeny8.txt</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>text_Petofi.txt</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>text_Petofi2.txt</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>text_Petofi3.txt</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>text_Petofi4.txt</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>text_quote2.txt</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>text_quote4.txt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>text_Szozat.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$G$2:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1430</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8747</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3366</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CEC2-4F7C-AD0A-2561AE0A20E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Szek. dekódolás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>text_Abrand.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_Ady.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_Ady2.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>text_Ady3.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>text_Agnes.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>text_JozsefA2.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>text_Madach.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>text_mama.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>text_oda.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>text_Orkeny.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>text_Orkeny13.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>text_Orkeny2.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>text_Orkeny3.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>text_Orkeny4.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>text_Orkeny5.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>text_Orkeny6.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>text_Orkeny7.txt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>text_Orkeny8.txt</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>text_Petofi.txt</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>text_Petofi2.txt</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>text_Petofi3.txt</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>text_Petofi4.txt</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>text_quote2.txt</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>text_quote4.txt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>text_Szozat.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$H$2:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CEC2-4F7C-AD0A-2561AE0A20E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Párh. dekódolás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>text_Abrand.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_Ady.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_Ady2.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>text_Ady3.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>text_Agnes.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>text_JozsefA2.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>text_Madach.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>text_mama.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>text_oda.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>text_Orkeny.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>text_Orkeny13.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>text_Orkeny2.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>text_Orkeny3.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>text_Orkeny4.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>text_Orkeny5.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>text_Orkeny6.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>text_Orkeny7.txt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>text_Orkeny8.txt</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>text_Petofi.txt</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>text_Petofi2.txt</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>text_Petofi3.txt</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>text_Petofi4.txt</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>text_quote2.txt</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>text_quote4.txt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>text_Szozat.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$I$2:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-CEC2-4F7C-AD0A-2561AE0A20E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OPENMP dekódolás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>text_Abrand.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_Ady.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_Ady2.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>text_Ady3.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>text_Agnes.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>text_JozsefA2.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>text_Madach.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>text_mama.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>text_oda.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>text_Orkeny.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>text_Orkeny13.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>text_Orkeny2.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>text_Orkeny3.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>text_Orkeny4.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>text_Orkeny5.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>text_Orkeny6.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>text_Orkeny7.txt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>text_Orkeny8.txt</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>text_Petofi.txt</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>text_Petofi2.txt</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>text_Petofi3.txt</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>text_Petofi4.txt</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>text_quote2.txt</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>text_quote4.txt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>text_Szozat.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$J$2:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1088</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-CEC2-4F7C-AD0A-2561AE0A20E1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -963,11 +1959,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="352176824"/>
-        <c:axId val="352310840"/>
+        <c:axId val="426111944"/>
+        <c:axId val="426110960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="352176824"/>
+        <c:axId val="426111944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,7 +2006,7 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352310840"/>
+        <c:crossAx val="426110960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1018,7 +2014,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="352310840"/>
+        <c:axId val="426110960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1069,7 +2065,945 @@
             <a:endParaRPr lang="hu-HU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352176824"/>
+        <c:crossAx val="426111944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pár. for teljes futási idő</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>text_Abrand.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_Ady.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_Ady2.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>text_Ady3.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>text_Agnes.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>text_JozsefA2.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>text_Madach.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>text_mama.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>text_oda.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>text_Orkeny.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>text_Orkeny13.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>text_Orkeny2.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>text_Orkeny3.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>text_Orkeny4.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>text_Orkeny5.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>text_Orkeny6.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>text_Orkeny7.txt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>text_Orkeny8.txt</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>text_Petofi.txt</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>text_Petofi2.txt</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>text_Petofi3.txt</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>text_Petofi4.txt</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>text_quote2.txt</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>text_quote4.txt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>text_Szozat.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$K$2:$K$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>83.945400000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>140.3021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158.9794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132.62459999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132.357</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.919799999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>137.34829999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>108.0232</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>86.981200000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>149.84399999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>134.70830000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>135.48679999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>131.9075</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>284.3775</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>219.97749999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>177.81270000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>182.0719</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>112.7855</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>126.8267</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>124.893</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>156.28819999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>86.490899999999996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>122.2186</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>73.212199999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>142.94</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>170.74459999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>147.1557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE09-4CA7-8069-368075F3AEF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pár. for kódolás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>text_Abrand.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_Ady.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_Ady2.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>text_Ady3.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>text_Agnes.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>text_JozsefA2.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>text_Madach.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>text_mama.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>text_oda.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>text_Orkeny.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>text_Orkeny13.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>text_Orkeny2.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>text_Orkeny3.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>text_Orkeny4.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>text_Orkeny5.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>text_Orkeny6.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>text_Orkeny7.txt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>text_Orkeny8.txt</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>text_Petofi.txt</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>text_Petofi2.txt</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>text_Petofi3.txt</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>text_Petofi4.txt</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>text_quote2.txt</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>text_quote4.txt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>text_Szozat.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$L$2:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>62.582900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106.357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110.8009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103.9062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.0622</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74.447500000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113.0341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>86.8369</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>114.2633</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.587100000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>103.8426</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83.052899999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.474499999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64.322699999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>167.11179999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>151.27160000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.616699999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97.701300000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90.436599999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>98.930700000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100.164</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>109.98860000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>69.728999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98.031099999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37.167700000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>124.5444</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>115.0778</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>97.942300000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE09-4CA7-8069-368075F3AEF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pár. for dekódolás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>text_Abrand.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_Ady.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_Ady2.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>text_Ady3.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>text_Agnes.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>text_JozsefA2.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>text_Madach.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>text_mama.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>text_oda.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>text_Orkeny.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>text_Orkeny13.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>text_Orkeny2.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>text_Orkeny3.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>text_Orkeny4.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>text_Orkeny5.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>text_Orkeny6.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>text_Orkeny7.txt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>text_Orkeny8.txt</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>text_Petofi.txt</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>text_Petofi2.txt</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>text_Petofi3.txt</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>text_Petofi4.txt</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>text_quote2.txt</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>text_quote4.txt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>text_Szozat.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$M$2:$M$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>11.3985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.294599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35.663699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.084900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.724799999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6528</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.242800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.443199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.509699999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8864999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.6584</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.425699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.453499999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.665199999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55.639299999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.405200000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.389700000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34.869399999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.8078</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.115399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.172700000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30.645700000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.734999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.963699999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30.786200000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20.252700000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33.336500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FE09-4CA7-8069-368075F3AEF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="345604072"/>
+        <c:axId val="345609648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="345604072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345609648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="345609648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345604072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1190,6 +3124,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -1693,24 +3667,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>89858</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>178458</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323491</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>39178</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>26957</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>134789</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>943513</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>134787</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvPr id="4" name="Diagram 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1720,6 +4197,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>158150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>182952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>452886</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95610</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagram 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1999,259 +4506,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="H1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="3">
+        <v>15205</v>
+      </c>
+      <c r="C2" s="3">
+        <v>79583</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3027</v>
+      </c>
+      <c r="E2" s="3">
+        <v>13528</v>
+      </c>
+      <c r="F2" s="3">
+        <v>36995</v>
+      </c>
+      <c r="G2" s="3">
+        <v>997</v>
+      </c>
       <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>994</v>
+      </c>
+      <c r="K2" s="3">
         <v>83.945400000000006</v>
       </c>
-      <c r="I2" s="3">
+      <c r="L2" s="3">
         <v>62.582900000000002</v>
       </c>
-      <c r="J2" s="3">
+      <c r="M2" s="3">
         <v>11.3985</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="B3" s="3">
+        <v>16486</v>
+      </c>
+      <c r="C3" s="3">
+        <v>72201</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2359</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6172</v>
+      </c>
+      <c r="F3" s="3">
+        <v>29988</v>
+      </c>
+      <c r="G3" s="3">
+        <v>881</v>
+      </c>
       <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>327</v>
+      </c>
+      <c r="K3" s="3">
         <v>140.3021</v>
       </c>
-      <c r="I3" s="3">
+      <c r="L3" s="3">
         <v>106.357</v>
       </c>
-      <c r="J3" s="3">
+      <c r="M3" s="3">
         <v>23.294599999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="B4" s="3">
+        <v>6725</v>
+      </c>
+      <c r="C4" s="3">
+        <v>65886</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6678</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>32088</v>
+      </c>
+      <c r="G4" s="3">
+        <v>996</v>
+      </c>
       <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>223</v>
+      </c>
+      <c r="K4" s="3">
         <v>158.9794</v>
       </c>
-      <c r="I4" s="3">
+      <c r="L4" s="3">
         <v>110.8009</v>
       </c>
-      <c r="J4" s="3">
+      <c r="M4" s="3">
         <v>35.663699999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="B5" s="3">
+        <v>15757</v>
+      </c>
+      <c r="C5" s="3">
+        <v>103224</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5806</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>42254</v>
+      </c>
+      <c r="G5" s="3">
+        <v>998</v>
+      </c>
       <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>995</v>
+      </c>
+      <c r="K5" s="3">
         <v>132.62459999999999</v>
       </c>
-      <c r="I5" s="3">
+      <c r="L5" s="3">
         <v>103.9062</v>
       </c>
-      <c r="J5" s="3">
+      <c r="M5" s="3">
         <v>18.084900000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="B6" s="3">
+        <v>6248</v>
+      </c>
+      <c r="C6" s="3">
+        <v>541669</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5310</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1036</v>
+      </c>
+      <c r="F6" s="3">
+        <v>285173</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1430</v>
+      </c>
       <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>998</v>
+      </c>
+      <c r="K6" s="3">
         <v>132.357</v>
       </c>
-      <c r="I6" s="3">
+      <c r="L6" s="3">
         <v>101.0622</v>
       </c>
-      <c r="J6" s="3">
+      <c r="M6" s="3">
         <v>17.724799999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="B7" s="3">
+        <v>9307</v>
+      </c>
+      <c r="C7" s="3">
+        <v>48216</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5389</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>17032</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1443</v>
+      </c>
       <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1088</v>
+      </c>
+      <c r="K7" s="3">
         <v>87.919799999999995</v>
       </c>
-      <c r="I7" s="3">
+      <c r="L7" s="3">
         <v>74.447500000000005</v>
       </c>
-      <c r="J7" s="3">
+      <c r="M7" s="3">
         <v>4.6528</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="3">
+        <v>15089</v>
+      </c>
+      <c r="C8" s="3">
+        <v>251521</v>
+      </c>
+      <c r="D8" s="3">
+        <v>12392</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>122214</v>
+      </c>
+      <c r="G8" s="3">
+        <v>996</v>
+      </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>603</v>
+      </c>
+      <c r="K8" s="3">
         <v>137.34829999999999</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>113.0341</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>11.242800000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="B9" s="3">
+        <v>6831</v>
+      </c>
+      <c r="C9" s="3">
+        <v>83664</v>
+      </c>
+      <c r="D9" s="3">
+        <v>14158</v>
+      </c>
+      <c r="E9" s="3">
+        <v>885</v>
+      </c>
+      <c r="F9" s="3">
+        <v>42058</v>
+      </c>
+      <c r="G9" s="3">
+        <v>999</v>
+      </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>997</v>
+      </c>
+      <c r="K9" s="3">
         <v>108.0232</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>86.8369</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>13.443199999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="3">
+        <v>8971</v>
+      </c>
+      <c r="C10" s="3">
+        <v>480584</v>
+      </c>
+      <c r="D10" s="3">
+        <v>20411</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>242186</v>
+      </c>
+      <c r="G10" s="3">
+        <v>8747</v>
+      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>666</v>
+      </c>
+      <c r="K10" s="3">
         <v>153</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>114.2633</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>16.509699999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="B11" s="3">
+        <v>19896</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>26129</v>
+      </c>
+      <c r="E11" s="3">
+        <v>989</v>
+      </c>
+      <c r="F11" s="3">
+        <v>394860</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3366</v>
+      </c>
       <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1977</v>
+      </c>
+      <c r="K11" s="3">
         <v>86.981200000000001</v>
       </c>
-      <c r="I11" s="3">
+      <c r="L11" s="3">
         <v>66.587100000000007</v>
       </c>
-      <c r="J11" s="3">
+      <c r="M11" s="3">
         <v>5.8864999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="3">
+        <v>20836</v>
+      </c>
+      <c r="C12" s="3">
+        <v>396303</v>
+      </c>
+      <c r="D12" s="3">
+        <v>24276</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>665843</v>
+      </c>
+      <c r="G12" s="3">
+        <v>13180</v>
+      </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2206</v>
+      </c>
+      <c r="K12" s="3">
         <v>149.84399999999999</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>103.8426</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>30.6584</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2261,17 +5029,20 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3">
         <v>134.70830000000001</v>
       </c>
-      <c r="I13" s="3">
+      <c r="L13" s="3">
         <v>83.052899999999994</v>
       </c>
-      <c r="J13" s="3">
+      <c r="M13" s="3">
         <v>37.425699999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -2281,17 +5052,20 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3">
         <v>135.48679999999999</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>60.474499999999999</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>36.453499999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -2301,17 +5075,20 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3">
         <v>131.9075</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>64.322699999999998</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>25.665199999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -2321,17 +5098,20 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3">
         <v>284.3775</v>
       </c>
-      <c r="I16" s="3">
+      <c r="L16" s="3">
         <v>167.11179999999999</v>
       </c>
-      <c r="J16" s="3">
+      <c r="M16" s="3">
         <v>55.639299999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
@@ -2341,17 +5121,20 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3">
         <v>219.97749999999999</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>151.27160000000001</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>21.405200000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -2361,17 +5144,20 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3">
         <v>177.81270000000001</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>99.616699999999994</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>25.389700000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -2381,17 +5167,20 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3">
         <v>182.0719</v>
       </c>
-      <c r="I19" s="3">
+      <c r="L19" s="3">
         <v>97.701300000000003</v>
       </c>
-      <c r="J19" s="3">
+      <c r="M19" s="3">
         <v>34.869399999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -2401,17 +5190,20 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3">
         <v>112.7855</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>90.436599999999999</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>10.8078</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -2421,17 +5213,20 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3">
         <v>126.8267</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>98.930700000000002</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>12.115399999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
@@ -2441,17 +5236,20 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3">
         <v>124.893</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>100.164</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>15.172700000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
@@ -2461,17 +5259,20 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3">
         <v>156.28819999999999</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>109.98860000000001</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>30.645700000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -2481,17 +5282,20 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3">
         <v>86.490899999999996</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>69.728999999999999</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>11.734999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
@@ -2501,17 +5305,20 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3">
         <v>122.2186</v>
       </c>
-      <c r="I25" s="3">
+      <c r="L25" s="3">
         <v>98.031099999999995</v>
       </c>
-      <c r="J25" s="3">
+      <c r="M25" s="3">
         <v>10.963699999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
@@ -2521,17 +5328,20 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3">
         <v>73.212199999999996</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>37.167700000000004</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>30.786200000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
@@ -2541,17 +5351,20 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="3">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3">
         <v>142.94</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>124.5444</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>10.210000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -2561,17 +5374,20 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="3">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3">
         <v>170.74459999999999</v>
       </c>
-      <c r="I28" s="3">
+      <c r="L28" s="3">
         <v>115.0778</v>
       </c>
-      <c r="J28" s="3">
+      <c r="M28" s="3">
         <v>20.252700000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
@@ -2581,18 +5397,21 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="3">
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3">
         <v>147.1557</v>
       </c>
-      <c r="I29" s="3">
+      <c r="L29" s="3">
         <v>97.942300000000003</v>
       </c>
-      <c r="J29" s="3">
+      <c r="M29" s="3">
         <v>33.336500000000001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J14">
+  <autoFilter ref="A1:M14">
     <sortState ref="A2:J31">
       <sortCondition ref="A1:A14"/>
     </sortState>

--- a/beadando/RSA_runtime.xlsx
+++ b/beadando/RSA_runtime.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>text_poet.txt</t>
   </si>
@@ -147,18 +147,6 @@
     <t>text_quote4.txt</t>
   </si>
   <si>
-    <t>Összeg</t>
-  </si>
-  <si>
-    <t>Átlag</t>
-  </si>
-  <si>
-    <t>Göngyölített összeg</t>
-  </si>
-  <si>
-    <t>Darab</t>
-  </si>
-  <si>
     <t>OPENMP dekódolás</t>
   </si>
   <si>
@@ -190,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +191,38 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -244,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -252,11 +272,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -489,6 +531,57 @@
                 <c:pt idx="10">
                   <c:v>20836</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>10591</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29899</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23936</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45878</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51281</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68595</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40892</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4650</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45174</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43124</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54896</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4655</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51859</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52072</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>58254</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>49439</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -636,19 +729,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>79583</c:v>
+                  <c:v>142102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72201</c:v>
+                  <c:v>99732</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65886</c:v>
+                  <c:v>98326</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>103224</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>541669</c:v>
+                  <c:v>721654</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>48216</c:v>
@@ -660,13 +753,64 @@
                   <c:v>83664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>480584</c:v>
+                  <c:v>494677</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>396303</c:v>
+                  <c:v>532582</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>372161</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>716119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>703432</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66698</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>470940</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>648276</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>206447</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>256307</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>195310</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>272499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36457</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25932</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39764</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20802</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>637268</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>340091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -847,6 +991,57 @@
                 <c:pt idx="10">
                   <c:v>24276</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>8149</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14061</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15718</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14959</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22098</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26241</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57131</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5946</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6981</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6486</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4988</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4054</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35906</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7977</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1012,19 +1207,70 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>885</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>998</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>989</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1626</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>813</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>956</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1197,13 +1443,64 @@
                   <c:v>42058</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>242186</c:v>
+                  <c:v>234373</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>394860</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>665843</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>681864</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>204355</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>414022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18315</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>473210</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>840080</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>448430</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77790</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130750</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84219</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>107711</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14957</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5985</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18518</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7981</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>570321</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>106713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,6 +1680,57 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>13180</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1356</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>923</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1537,37 +1885,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4776</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8942</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5921</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8976</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9035</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
+                <c:pt idx="26">
+                  <c:v>8975</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1722,37 +2121,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>43750</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>26871</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>42882</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>45878</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>280702</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>15956</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>126339</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>38855</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>248791</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>376992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>698794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>678707</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>107063</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>312968</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39476</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11619</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>436684</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>76796</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>102725</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105718</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>111696</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12962</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6819</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12964</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8943</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>559843</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>102727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1938,6 +2388,57 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2206</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1376</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1651</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2604</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2957</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3477</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3988</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3084,6 +3585,2820 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Szekvenciális össz idő</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>text_Abrand.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_Ady.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_Ady2.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>text_Ady3.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>text_Agnes.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>text_JozsefA2.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>text_Madach.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>text_mama.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>text_oda.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>text_Orkeny.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>text_Orkeny13.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>text_Orkeny2.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>text_Orkeny3.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>text_Orkeny4.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>text_Orkeny5.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>text_Orkeny6.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>text_Orkeny7.txt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>text_Orkeny8.txt</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>text_Petofi.txt</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>text_Petofi2.txt</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>text_Petofi3.txt</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>text_Petofi4.txt</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>text_quote2.txt</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>text_quote4.txt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>text_Szozat.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$B$2:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>15205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16486</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15757</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6248</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9307</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15089</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6831</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8971</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19896</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20836</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10591</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29899</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23936</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45878</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51281</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49865</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>68595</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40892</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4650</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45174</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43124</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54896</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4655</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51859</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52072</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>58254</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>49439</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE3D-40E9-BFFD-8CA7CE32244E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Szek. kódolás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>text_Abrand.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_Ady.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_Ady2.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>text_Ady3.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>text_Agnes.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>text_JozsefA2.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>text_Madach.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>text_mama.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>text_oda.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>text_Orkeny.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>text_Orkeny13.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>text_Orkeny2.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>text_Orkeny3.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>text_Orkeny4.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>text_Orkeny5.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>text_Orkeny6.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>text_Orkeny7.txt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>text_Orkeny8.txt</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>text_Petofi.txt</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>text_Petofi2.txt</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>text_Petofi3.txt</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>text_Petofi4.txt</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>text_quote2.txt</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>text_quote4.txt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>text_Szozat.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$E$2:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>13528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>885</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1626</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>933</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>813</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>956</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AE3D-40E9-BFFD-8CA7CE32244E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Szek. dekódolás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>text_Abrand.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_Ady.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_Ady2.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>text_Ady3.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>text_Agnes.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>text_JozsefA2.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>text_Madach.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>text_mama.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>text_oda.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>text_Orkeny.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>text_Orkeny13.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>text_Orkeny2.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>text_Orkeny3.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>text_Orkeny4.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>text_Orkeny5.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>text_Orkeny6.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>text_Orkeny7.txt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>text_Orkeny8.txt</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>text_Petofi.txt</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>text_Petofi2.txt</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>text_Petofi3.txt</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>text_Petofi4.txt</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>text_quote2.txt</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>text_quote4.txt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>text_Szozat.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$H$2:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>965</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4776</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8942</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5921</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8976</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9035</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8975</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AE3D-40E9-BFFD-8CA7CE32244E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="401071088"/>
+        <c:axId val="401068136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="401071088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401068136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="401068136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401071088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OPENMP össz idő</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>text_Abrand.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_Ady.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_Ady2.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>text_Ady3.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>text_Agnes.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>text_JozsefA2.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>text_Madach.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>text_mama.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>text_oda.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>text_Orkeny.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>text_Orkeny13.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>text_Orkeny2.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>text_Orkeny3.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>text_Orkeny4.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>text_Orkeny5.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>text_Orkeny6.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>text_Orkeny7.txt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>text_Orkeny8.txt</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>text_Petofi.txt</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>text_Petofi2.txt</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>text_Petofi3.txt</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>text_Petofi4.txt</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>text_quote2.txt</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>text_quote4.txt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>text_Szozat.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$D$2:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>3027</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6678</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5806</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5310</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5389</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12392</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20411</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26129</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24276</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8149</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14061</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15718</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14959</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22098</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26241</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>57131</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5946</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6981</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6486</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4988</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2141</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4054</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35906</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7977</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55DF-4966-BE59-68AE280CB027}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> OPENMP kódolás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>text_Abrand.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_Ady.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_Ady2.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>text_Ady3.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>text_Agnes.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>text_JozsefA2.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>text_Madach.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>text_mama.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>text_oda.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>text_Orkeny.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>text_Orkeny13.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>text_Orkeny2.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>text_Orkeny3.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>text_Orkeny4.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>text_Orkeny5.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>text_Orkeny6.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>text_Orkeny7.txt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>text_Orkeny8.txt</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>text_Petofi.txt</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>text_Petofi2.txt</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>text_Petofi3.txt</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>text_Petofi4.txt</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>text_quote2.txt</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>text_quote4.txt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>text_Szozat.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$G$2:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1430</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8747</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3366</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13180</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1356</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>923</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-55DF-4966-BE59-68AE280CB027}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OPENMP dekódolás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>text_Abrand.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_Ady.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_Ady2.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>text_Ady3.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>text_Agnes.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>text_JozsefA2.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>text_Madach.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>text_mama.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>text_oda.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>text_Orkeny.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>text_Orkeny13.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>text_Orkeny2.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>text_Orkeny3.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>text_Orkeny4.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>text_Orkeny5.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>text_Orkeny6.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>text_Orkeny7.txt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>text_Orkeny8.txt</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>text_Petofi.txt</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>text_Petofi2.txt</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>text_Petofi3.txt</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>text_Petofi4.txt</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>text_quote2.txt</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>text_quote4.txt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>text_Szozat.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$J$2:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1088</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2206</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1376</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1651</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2604</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2957</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3477</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1041</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3988</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-55DF-4966-BE59-68AE280CB027}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="440605856"/>
+        <c:axId val="440609464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="440605856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440609464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="440609464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440605856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Párhuzamosítás össz idő</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>text_Abrand.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_Ady.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_Ady2.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>text_Ady3.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>text_Agnes.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>text_JozsefA2.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>text_Madach.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>text_mama.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>text_oda.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>text_Orkeny.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>text_Orkeny13.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>text_Orkeny2.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>text_Orkeny3.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>text_Orkeny4.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>text_Orkeny5.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>text_Orkeny6.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>text_Orkeny7.txt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>text_Orkeny8.txt</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>text_Petofi.txt</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>text_Petofi2.txt</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>text_Petofi3.txt</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>text_Petofi4.txt</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>text_quote2.txt</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>text_quote4.txt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>text_Szozat.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$C$2:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>142102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>103224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>721654</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>251521</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>494677</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>532582</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>372161</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>716119</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>703432</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66698</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>470940</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>850700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>648276</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>206447</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>256307</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>195310</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>272499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36457</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25932</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39764</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20802</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>637268</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>340091</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-49D5-4727-976A-0E3155CC218B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Párh. kódolás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>text_Abrand.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_Ady.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_Ady2.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>text_Ady3.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>text_Agnes.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>text_JozsefA2.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>text_Madach.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>text_mama.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>text_oda.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>text_Orkeny.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>text_Orkeny13.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>text_Orkeny2.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>text_Orkeny3.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>text_Orkeny4.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>text_Orkeny5.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>text_Orkeny6.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>text_Orkeny7.txt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>text_Orkeny8.txt</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>text_Petofi.txt</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>text_Petofi2.txt</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>text_Petofi3.txt</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>text_Petofi4.txt</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>text_quote2.txt</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>text_quote4.txt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>text_Szozat.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$F$2:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>36995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42254</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>285173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17032</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>122214</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42058</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>234373</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>394860</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>665843</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>681864</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>204355</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>414022</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18315</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>473210</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>840080</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>448430</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77790</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130750</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>84219</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>107711</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14957</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5985</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18518</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7981</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>570321</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>106713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-49D5-4727-976A-0E3155CC218B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Párh. dekódolás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$2:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>text_Abrand.txt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>text_Ady.txt</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>text_Ady2.txt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>text_Ady3.txt</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>text_Agnes.txt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>text_JozsefA2.txt</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>text_Madach.txt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>text_mama.txt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>text_oda.txt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>text_Orkeny.txt</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>text_Orkeny13.txt</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>text_Orkeny2.txt</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>text_Orkeny3.txt</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>text_Orkeny4.txt</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>text_Orkeny5.txt</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>text_Orkeny6.txt</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>text_Orkeny7.txt</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>text_Orkeny8.txt</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>text_Petofi.txt</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>text_Petofi2.txt</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>text_Petofi3.txt</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>text_Petofi4.txt</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>text_poet.txt</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>text_quote.txt</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>text_quote2.txt</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>text_quote4.txt</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>text_short_story.txt</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>text_Szozat.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$I$2:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>43750</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26871</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15956</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>126339</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38855</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>248791</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>376992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>698794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>678707</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>107063</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>312968</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39476</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11619</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>436684</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>76796</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>102725</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105718</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>111696</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12962</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6819</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12964</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8943</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>559843</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>102727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-49D5-4727-976A-0E3155CC218B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="443144760"/>
+        <c:axId val="443145416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="443144760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443145416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="443145416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443144760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3164,6 +6479,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4170,20 +7605,1529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>323491</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>39178</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>84106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>943513</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>71886</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>134787</xdr:rowOff>
+      <xdr:rowOff>80871</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4204,16 +9148,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>158150</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>182952</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104235</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>452886</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>470858</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>95610</xdr:rowOff>
+      <xdr:rowOff>131553</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4227,6 +9171,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>122207</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>8985</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>35943</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>113222</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>39177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>107831</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>170730</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>248010</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>111065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>772783</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>179717</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagram 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4506,11 +9540,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4527,36 +9559,37 @@
     <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
@@ -4568,48 +9601,61 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="10">
         <v>15205</v>
       </c>
-      <c r="C2" s="3">
-        <v>79583</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="10">
+        <v>142102</v>
+      </c>
+      <c r="D2" s="10">
         <v>3027</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="10">
         <v>13528</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="10">
         <v>36995</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="10">
         <v>997</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
+      <c r="H2" s="10">
+        <v>282</v>
+      </c>
+      <c r="I2" s="10">
+        <v>43750</v>
+      </c>
+      <c r="J2" s="10">
         <v>994</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="10">
         <v>83.945400000000006</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="10">
         <v>62.582900000000002</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="10">
         <v>11.3985</v>
       </c>
+      <c r="N2" s="11" t="b">
+        <f>IF(B2&gt;E2+H2,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O2" s="11" t="b">
+        <f t="shared" ref="O2:P17" si="0">IF(C2&gt;F2+I2,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="P2" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -4617,7 +9663,7 @@
         <v>16486</v>
       </c>
       <c r="C3" s="3">
-        <v>72201</v>
+        <v>99732</v>
       </c>
       <c r="D3" s="3">
         <v>2359</v>
@@ -4632,10 +9678,10 @@
         <v>881</v>
       </c>
       <c r="H3" s="3">
-        <v>0</v>
+        <v>998</v>
       </c>
       <c r="I3" s="3">
-        <v>0</v>
+        <v>26871</v>
       </c>
       <c r="J3" s="3">
         <v>327</v>
@@ -4649,8 +9695,20 @@
       <c r="M3" s="3">
         <v>23.294599999999999</v>
       </c>
+      <c r="N3" t="b">
+        <f t="shared" ref="N3:N29" si="1">IF(B3&gt;E3+H3,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="O3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -4658,7 +9716,7 @@
         <v>6725</v>
       </c>
       <c r="C4" s="3">
-        <v>65886</v>
+        <v>98326</v>
       </c>
       <c r="D4" s="3">
         <v>6678</v>
@@ -4673,10 +9731,10 @@
         <v>996</v>
       </c>
       <c r="H4" s="3">
-        <v>0</v>
+        <v>998</v>
       </c>
       <c r="I4" s="3">
-        <v>0</v>
+        <v>42882</v>
       </c>
       <c r="J4" s="3">
         <v>223</v>
@@ -4690,8 +9748,20 @@
       <c r="M4" s="3">
         <v>35.663699999999999</v>
       </c>
+      <c r="N4" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -4714,10 +9784,10 @@
         <v>998</v>
       </c>
       <c r="H5" s="3">
-        <v>0</v>
+        <v>998</v>
       </c>
       <c r="I5" s="3">
-        <v>0</v>
+        <v>45878</v>
       </c>
       <c r="J5" s="3">
         <v>995</v>
@@ -4731,49 +9801,74 @@
       <c r="M5" s="3">
         <v>18.084900000000001</v>
       </c>
+      <c r="N5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="10">
         <v>6248</v>
       </c>
-      <c r="C6" s="3">
-        <v>541669</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="10">
+        <v>721654</v>
+      </c>
+      <c r="D6" s="10">
         <v>5310</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="10">
         <v>1036</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="10">
         <v>285173</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="10">
         <v>1430</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="H6" s="10">
+        <v>2025</v>
+      </c>
+      <c r="I6" s="10">
+        <v>280702</v>
+      </c>
+      <c r="J6" s="10">
         <v>998</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="10">
         <v>132.357</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="10">
         <v>101.0622</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="10">
         <v>17.724799999999998</v>
       </c>
+      <c r="N6" s="11" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="11"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -4796,10 +9891,10 @@
         <v>1443</v>
       </c>
       <c r="H7" s="3">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="I7" s="3">
-        <v>0</v>
+        <v>15956</v>
       </c>
       <c r="J7" s="3">
         <v>1088</v>
@@ -4813,8 +9908,20 @@
       <c r="M7" s="3">
         <v>4.6528</v>
       </c>
+      <c r="N7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -4828,7 +9935,7 @@
         <v>12392</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="F8" s="3">
         <v>122214</v>
@@ -4837,10 +9944,10 @@
         <v>996</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>996</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>126339</v>
       </c>
       <c r="J8" s="3">
         <v>603</v>
@@ -4854,8 +9961,20 @@
       <c r="M8" s="3">
         <v>11.242800000000001</v>
       </c>
+      <c r="N8" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -4878,10 +9997,10 @@
         <v>999</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>38855</v>
       </c>
       <c r="J9" s="3">
         <v>997</v>
@@ -4895,8 +10014,20 @@
       <c r="M9" s="3">
         <v>13.443199999999999</v>
       </c>
+      <c r="N9" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -4904,25 +10035,25 @@
         <v>8971</v>
       </c>
       <c r="C10" s="3">
-        <v>480584</v>
+        <v>494677</v>
       </c>
       <c r="D10" s="3">
         <v>20411</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>998</v>
       </c>
       <c r="F10" s="3">
-        <v>242186</v>
+        <v>234373</v>
       </c>
       <c r="G10" s="3">
         <v>8747</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>997</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>248791</v>
       </c>
       <c r="J10" s="3">
         <v>666</v>
@@ -4936,171 +10067,328 @@
       <c r="M10" s="3">
         <v>16.509699999999999</v>
       </c>
+      <c r="N10" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="6">
         <v>19896</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>0</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6">
         <v>26129</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="6">
         <v>989</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="6">
         <v>394860</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="6">
         <v>3366</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
+        <v>1994</v>
+      </c>
+      <c r="I11" s="6">
+        <v>376992</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1977</v>
+      </c>
+      <c r="K11" s="6">
+        <v>86.981200000000001</v>
+      </c>
+      <c r="L11" s="6">
+        <v>66.587100000000007</v>
+      </c>
+      <c r="M11" s="6">
+        <v>5.8864999999999998</v>
+      </c>
+      <c r="N11" s="7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O11" s="7" t="b">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="3">
+      <c r="P11" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="J11" s="3">
-        <v>1977</v>
-      </c>
-      <c r="K11" s="3">
-        <v>86.981200000000001</v>
-      </c>
-      <c r="L11" s="3">
-        <v>66.587100000000007</v>
-      </c>
-      <c r="M11" s="3">
-        <v>5.8864999999999998</v>
-      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <v>20836</v>
       </c>
-      <c r="C12" s="3">
-        <v>396303</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="6">
+        <v>532582</v>
+      </c>
+      <c r="D12" s="6">
         <v>24276</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="6">
+        <v>1995</v>
+      </c>
+      <c r="F12" s="6">
+        <v>665843</v>
+      </c>
+      <c r="G12" s="6">
+        <v>13180</v>
+      </c>
+      <c r="H12" s="6">
+        <v>4776</v>
+      </c>
+      <c r="I12" s="6">
+        <v>698794</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2206</v>
+      </c>
+      <c r="K12" s="6">
+        <v>149.84399999999999</v>
+      </c>
+      <c r="L12" s="6">
+        <v>103.8426</v>
+      </c>
+      <c r="M12" s="6">
+        <v>30.6584</v>
+      </c>
+      <c r="N12" s="7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="7" t="b">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="3">
-        <v>665843</v>
-      </c>
-      <c r="G12" s="3">
-        <v>13180</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="P12" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="I12" s="3">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="6">
+        <v>10591</v>
+      </c>
+      <c r="C13" s="6">
+        <v>372161</v>
+      </c>
+      <c r="D13" s="6">
+        <v>8149</v>
+      </c>
+      <c r="E13" s="6">
+        <v>997</v>
+      </c>
+      <c r="F13" s="6">
+        <v>681864</v>
+      </c>
+      <c r="G13" s="6">
+        <v>996</v>
+      </c>
+      <c r="H13" s="6">
+        <v>3991</v>
+      </c>
+      <c r="I13" s="6">
+        <v>678707</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1376</v>
+      </c>
+      <c r="K13" s="6">
+        <v>134.70830000000001</v>
+      </c>
+      <c r="L13" s="6">
+        <v>83.052899999999994</v>
+      </c>
+      <c r="M13" s="6">
+        <v>37.425699999999999</v>
+      </c>
+      <c r="N13" s="7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="7" t="b">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="3">
-        <v>2206</v>
-      </c>
-      <c r="K12" s="3">
-        <v>149.84399999999999</v>
-      </c>
-      <c r="L12" s="3">
-        <v>103.8426</v>
-      </c>
-      <c r="M12" s="3">
-        <v>30.6584</v>
+      <c r="P13" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3">
-        <v>134.70830000000001</v>
-      </c>
-      <c r="L13" s="3">
-        <v>83.052899999999994</v>
-      </c>
-      <c r="M13" s="3">
-        <v>37.425699999999999</v>
-      </c>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="10">
+        <v>29899</v>
+      </c>
+      <c r="C14" s="10">
+        <v>716119</v>
+      </c>
+      <c r="D14" s="10">
+        <v>14061</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1995</v>
+      </c>
+      <c r="F14" s="10">
+        <v>204355</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1356</v>
+      </c>
+      <c r="H14" s="10">
+        <v>8023</v>
+      </c>
+      <c r="I14" s="10">
+        <v>107063</v>
+      </c>
+      <c r="J14" s="10">
+        <v>1651</v>
+      </c>
+      <c r="K14" s="10">
+        <v>135.48679999999999</v>
+      </c>
+      <c r="L14" s="10">
+        <v>60.474499999999999</v>
+      </c>
+      <c r="M14" s="10">
+        <v>36.453499999999998</v>
+      </c>
+      <c r="N14" s="11" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P14" s="11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="11"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3">
-        <v>135.48679999999999</v>
-      </c>
-      <c r="L14" s="3">
-        <v>60.474499999999999</v>
-      </c>
-      <c r="M14" s="3">
-        <v>36.453499999999998</v>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="6">
+        <v>23936</v>
+      </c>
+      <c r="C15" s="6">
+        <v>703432</v>
+      </c>
+      <c r="D15" s="6">
+        <v>15718</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1996</v>
+      </c>
+      <c r="F15" s="6">
+        <v>414022</v>
+      </c>
+      <c r="G15" s="6">
+        <v>997</v>
+      </c>
+      <c r="H15" s="6">
+        <v>8942</v>
+      </c>
+      <c r="I15" s="6">
+        <v>312968</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2604</v>
+      </c>
+      <c r="K15" s="6">
+        <v>131.9075</v>
+      </c>
+      <c r="L15" s="6">
+        <v>64.322699999999998</v>
+      </c>
+      <c r="M15" s="6">
+        <v>25.665199999999999</v>
+      </c>
+      <c r="N15" s="7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3">
-        <v>131.9075</v>
-      </c>
-      <c r="L15" s="3">
-        <v>64.322699999999998</v>
-      </c>
-      <c r="M15" s="3">
-        <v>25.665199999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="B16" s="3">
+        <v>45878</v>
+      </c>
+      <c r="C16" s="3">
+        <v>66698</v>
+      </c>
+      <c r="D16" s="3">
+        <v>13999</v>
+      </c>
+      <c r="E16" s="3">
+        <v>998</v>
+      </c>
+      <c r="F16" s="3">
+        <v>18315</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1995</v>
+      </c>
+      <c r="H16" s="3">
+        <v>5921</v>
+      </c>
+      <c r="I16" s="3">
+        <v>39476</v>
+      </c>
+      <c r="J16" s="3">
+        <v>2112</v>
+      </c>
       <c r="K16" s="3">
         <v>284.3775</v>
       </c>
@@ -5110,89 +10398,218 @@
       <c r="M16" s="3">
         <v>55.639299999999999</v>
       </c>
+      <c r="N16" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3">
+      <c r="B17" s="6">
+        <v>51281</v>
+      </c>
+      <c r="C17" s="6">
+        <v>470940</v>
+      </c>
+      <c r="D17" s="6">
+        <v>14959</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1994</v>
+      </c>
+      <c r="F17" s="6">
+        <v>473210</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1960</v>
+      </c>
+      <c r="H17" s="6">
+        <v>8976</v>
+      </c>
+      <c r="I17" s="6">
+        <v>5625</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2957</v>
+      </c>
+      <c r="K17" s="6">
         <v>219.97749999999999</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="6">
         <v>151.27160000000001</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="6">
         <v>21.405200000000001</v>
       </c>
+      <c r="N17" s="7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="7" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3">
+      <c r="B18" s="6">
+        <v>49865</v>
+      </c>
+      <c r="C18" s="6">
+        <v>850700</v>
+      </c>
+      <c r="D18" s="6">
+        <v>22098</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1996</v>
+      </c>
+      <c r="F18" s="6">
+        <v>840080</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1956</v>
+      </c>
+      <c r="H18" s="6">
+        <v>10003</v>
+      </c>
+      <c r="I18" s="6">
+        <v>11619</v>
+      </c>
+      <c r="J18" s="6">
+        <v>3477</v>
+      </c>
+      <c r="K18" s="6">
         <v>177.81270000000001</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="6">
         <v>99.616699999999994</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="6">
         <v>25.389700000000001</v>
       </c>
+      <c r="N18" s="7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="7" t="b">
+        <f t="shared" ref="O18:O29" si="2">IF(C18&gt;F18+I18,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="7" t="b">
+        <f t="shared" ref="P18:P29" si="3">IF(D18&gt;G18+J18,TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="7" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3">
+      <c r="B19" s="6">
+        <v>68595</v>
+      </c>
+      <c r="C19" s="6">
+        <v>648276</v>
+      </c>
+      <c r="D19" s="6">
+        <v>26241</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1626</v>
+      </c>
+      <c r="F19" s="6">
+        <v>448430</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1976</v>
+      </c>
+      <c r="H19" s="6">
+        <v>9035</v>
+      </c>
+      <c r="I19" s="6">
+        <v>436684</v>
+      </c>
+      <c r="J19" s="6">
+        <v>2994</v>
+      </c>
+      <c r="K19" s="6">
         <v>182.0719</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="6">
         <v>97.701300000000003</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="6">
         <v>34.869399999999999</v>
       </c>
+      <c r="N19" s="7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="7" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="7" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="B20" s="3">
+        <v>40892</v>
+      </c>
+      <c r="C20" s="3">
+        <v>206447</v>
+      </c>
+      <c r="D20" s="3">
+        <v>57131</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>77790</v>
+      </c>
+      <c r="G20" s="3">
+        <v>997</v>
+      </c>
+      <c r="H20" s="3">
+        <v>997</v>
+      </c>
+      <c r="I20" s="3">
+        <v>76796</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1041</v>
+      </c>
       <c r="K20" s="3">
         <v>112.7855</v>
       </c>
@@ -5202,20 +10619,50 @@
       <c r="M20" s="3">
         <v>10.8078</v>
       </c>
+      <c r="N20" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O20" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P20" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="B21" s="3">
+        <v>4650</v>
+      </c>
+      <c r="C21" s="3">
+        <v>256307</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5946</v>
+      </c>
+      <c r="E21" s="3">
+        <v>954</v>
+      </c>
+      <c r="F21" s="3">
+        <v>130750</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1095</v>
+      </c>
+      <c r="H21" s="3">
+        <v>996</v>
+      </c>
+      <c r="I21" s="3">
+        <v>102725</v>
+      </c>
+      <c r="J21" s="3">
+        <v>794</v>
+      </c>
       <c r="K21" s="3">
         <v>126.8267</v>
       </c>
@@ -5225,20 +10672,50 @@
       <c r="M21" s="3">
         <v>12.115399999999999</v>
       </c>
+      <c r="N21" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O21" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P21" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="B22" s="3">
+        <v>45174</v>
+      </c>
+      <c r="C22" s="3">
+        <v>195310</v>
+      </c>
+      <c r="D22" s="3">
+        <v>6981</v>
+      </c>
+      <c r="E22" s="3">
+        <v>997</v>
+      </c>
+      <c r="F22" s="3">
+        <v>84219</v>
+      </c>
+      <c r="G22" s="3">
+        <v>996</v>
+      </c>
+      <c r="H22" s="3">
+        <v>504</v>
+      </c>
+      <c r="I22" s="3">
+        <v>105718</v>
+      </c>
+      <c r="J22" s="3">
+        <v>800</v>
+      </c>
       <c r="K22" s="3">
         <v>124.893</v>
       </c>
@@ -5248,20 +10725,50 @@
       <c r="M22" s="3">
         <v>15.172700000000001</v>
       </c>
+      <c r="N22" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O22" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P22" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="B23" s="3">
+        <v>43124</v>
+      </c>
+      <c r="C23" s="3">
+        <v>272499</v>
+      </c>
+      <c r="D23" s="3">
+        <v>6486</v>
+      </c>
+      <c r="E23" s="3">
+        <v>933</v>
+      </c>
+      <c r="F23" s="3">
+        <v>107711</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1025</v>
+      </c>
+      <c r="H23" s="3">
+        <v>627</v>
+      </c>
+      <c r="I23" s="3">
+        <v>111696</v>
+      </c>
+      <c r="J23" s="3">
+        <v>918</v>
+      </c>
       <c r="K23" s="3">
         <v>156.28819999999999</v>
       </c>
@@ -5271,20 +10778,50 @@
       <c r="M23" s="3">
         <v>30.645700000000001</v>
       </c>
+      <c r="N23" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O23" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="B24" s="3">
+        <v>54896</v>
+      </c>
+      <c r="C24" s="3">
+        <v>36457</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4988</v>
+      </c>
+      <c r="E24" s="3">
+        <v>813</v>
+      </c>
+      <c r="F24" s="3">
+        <v>14957</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1037</v>
+      </c>
+      <c r="H24" s="3">
+        <v>983</v>
+      </c>
+      <c r="I24" s="3">
+        <v>12962</v>
+      </c>
+      <c r="J24" s="3">
+        <v>767</v>
+      </c>
       <c r="K24" s="3">
         <v>86.490899999999996</v>
       </c>
@@ -5294,20 +10831,50 @@
       <c r="M24" s="3">
         <v>11.734999999999999</v>
       </c>
+      <c r="N24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O24" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="B25" s="3">
+        <v>4655</v>
+      </c>
+      <c r="C25" s="3">
+        <v>25932</v>
+      </c>
+      <c r="D25" s="3">
+        <v>2141</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>5985</v>
+      </c>
+      <c r="G25" s="3">
+        <v>997</v>
+      </c>
+      <c r="H25" s="3">
+        <v>996</v>
+      </c>
+      <c r="I25" s="3">
+        <v>6819</v>
+      </c>
+      <c r="J25" s="3">
+        <v>503</v>
+      </c>
       <c r="K25" s="3">
         <v>122.2186</v>
       </c>
@@ -5317,20 +10884,50 @@
       <c r="M25" s="3">
         <v>10.963699999999999</v>
       </c>
+      <c r="N25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="B26" s="3">
+        <v>51859</v>
+      </c>
+      <c r="C26" s="3">
+        <v>39764</v>
+      </c>
+      <c r="D26" s="3">
+        <v>3989</v>
+      </c>
+      <c r="E26" s="3">
+        <v>131</v>
+      </c>
+      <c r="F26" s="3">
+        <v>18518</v>
+      </c>
+      <c r="G26" s="3">
+        <v>999</v>
+      </c>
+      <c r="H26" s="3">
+        <v>998</v>
+      </c>
+      <c r="I26" s="3">
+        <v>12964</v>
+      </c>
+      <c r="J26" s="3">
+        <v>217</v>
+      </c>
       <c r="K26" s="3">
         <v>73.212199999999996</v>
       </c>
@@ -5340,20 +10937,50 @@
       <c r="M26" s="3">
         <v>30.786200000000001</v>
       </c>
+      <c r="N26" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O26" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="B27" s="3">
+        <v>52072</v>
+      </c>
+      <c r="C27" s="3">
+        <v>20802</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4054</v>
+      </c>
+      <c r="E27" s="3">
+        <v>956</v>
+      </c>
+      <c r="F27" s="3">
+        <v>7981</v>
+      </c>
+      <c r="G27" s="3">
+        <v>923</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>8943</v>
+      </c>
+      <c r="J27" s="3">
+        <v>404</v>
+      </c>
       <c r="K27" s="3">
         <v>142.94</v>
       </c>
@@ -5363,43 +10990,106 @@
       <c r="M27" s="3">
         <v>10.210000000000001</v>
       </c>
+      <c r="N27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O27" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P27" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3">
+      <c r="B28" s="6">
+        <v>58254</v>
+      </c>
+      <c r="C28" s="6">
+        <v>637268</v>
+      </c>
+      <c r="D28" s="6">
+        <v>35906</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1995</v>
+      </c>
+      <c r="F28" s="6">
+        <v>570321</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1995</v>
+      </c>
+      <c r="H28" s="6">
+        <v>8975</v>
+      </c>
+      <c r="I28" s="6">
+        <v>559843</v>
+      </c>
+      <c r="J28" s="6">
+        <v>3988</v>
+      </c>
+      <c r="K28" s="6">
         <v>170.74459999999999</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="6">
         <v>115.0778</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="6">
         <v>20.252700000000001</v>
       </c>
+      <c r="N28" s="7" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O28" s="7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="7" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="7" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="B29" s="3">
+        <v>49439</v>
+      </c>
+      <c r="C29" s="3">
+        <v>340091</v>
+      </c>
+      <c r="D29" s="3">
+        <v>7977</v>
+      </c>
+      <c r="E29" s="3">
+        <v>999</v>
+      </c>
+      <c r="F29" s="3">
+        <v>106713</v>
+      </c>
+      <c r="G29" s="3">
+        <v>997</v>
+      </c>
+      <c r="H29" s="3">
+        <v>997</v>
+      </c>
+      <c r="I29" s="3">
+        <v>102727</v>
+      </c>
+      <c r="J29" s="3">
+        <v>997</v>
+      </c>
       <c r="K29" s="3">
         <v>147.1557</v>
       </c>
@@ -5408,14 +11098,41 @@
       </c>
       <c r="M29" s="3">
         <v>33.336500000000001</v>
+      </c>
+      <c r="N29" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O29" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P29" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M14">
-    <sortState ref="A2:J31">
+    <sortState ref="A2:M29">
       <sortCondition ref="A1:A14"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="Q2">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+        <color rgb="FF00B0F0"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:K29">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/beadando/RSA_runtime.xlsx
+++ b/beadando/RSA_runtime.xlsx
@@ -9542,7 +9542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/beadando/RSA_runtime.xlsx
+++ b/beadando/RSA_runtime.xlsx
@@ -178,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,23 +191,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -264,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -278,11 +261,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -499,88 +477,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>15205</c:v>
+                  <c:v>359.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16486</c:v>
+                  <c:v>255.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6725</c:v>
+                  <c:v>356.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15757</c:v>
+                  <c:v>355.93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6248</c:v>
+                  <c:v>356.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9307</c:v>
+                  <c:v>356.23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15089</c:v>
+                  <c:v>385.62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6831</c:v>
+                  <c:v>356.45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8971</c:v>
+                  <c:v>356.53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19896</c:v>
+                  <c:v>312.51</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20836</c:v>
+                  <c:v>312.45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10591</c:v>
+                  <c:v>312.12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29899</c:v>
+                  <c:v>356.22</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23936</c:v>
+                  <c:v>468.69</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45878</c:v>
+                  <c:v>312.83</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51281</c:v>
+                  <c:v>312.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49865</c:v>
+                  <c:v>312.49</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>68595</c:v>
+                  <c:v>519.42999999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40892</c:v>
+                  <c:v>510.36</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4650</c:v>
+                  <c:v>341.65</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45174</c:v>
+                  <c:v>497.98</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43124</c:v>
+                  <c:v>471.11</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54896</c:v>
+                  <c:v>402.29</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4655</c:v>
+                  <c:v>520.03</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51859</c:v>
+                  <c:v>336.58</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52072</c:v>
+                  <c:v>330.29</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>58254</c:v>
+                  <c:v>414.01</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>49439</c:v>
+                  <c:v>385.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,88 +707,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>142102</c:v>
+                  <c:v>936.97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99732</c:v>
+                  <c:v>624.83000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98326</c:v>
+                  <c:v>781.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>103224</c:v>
+                  <c:v>781.04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>721654</c:v>
+                  <c:v>5155.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48216</c:v>
+                  <c:v>468.62</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>251521</c:v>
+                  <c:v>2639.17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83664</c:v>
+                  <c:v>781.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>494677</c:v>
+                  <c:v>4842.9399999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6747.87</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>532582</c:v>
+                  <c:v>6034.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>372161</c:v>
+                  <c:v>6340.85</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>716119</c:v>
+                  <c:v>6950.18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>703432</c:v>
+                  <c:v>7513.98</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>66698</c:v>
+                  <c:v>7762.71</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>470940</c:v>
+                  <c:v>9632.0499999999993</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>850700</c:v>
+                  <c:v>6139.18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>648276</c:v>
+                  <c:v>8124.83</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>206447</c:v>
+                  <c:v>3153.92</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>256307</c:v>
+                  <c:v>2835.28</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>195310</c:v>
+                  <c:v>2184.2399999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>272499</c:v>
+                  <c:v>2514.7199999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>36457</c:v>
+                  <c:v>401.42</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25932</c:v>
+                  <c:v>349.17</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>39764</c:v>
+                  <c:v>366.52</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20802</c:v>
+                  <c:v>313.56</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>637268</c:v>
+                  <c:v>6048.92</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>340091</c:v>
+                  <c:v>2567.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,88 +937,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>3027</c:v>
+                  <c:v>135.51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2359</c:v>
+                  <c:v>256.54000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6678</c:v>
+                  <c:v>294.16000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5806</c:v>
+                  <c:v>259.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5310</c:v>
+                  <c:v>355.87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5389</c:v>
+                  <c:v>356.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12392</c:v>
+                  <c:v>356.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14158</c:v>
+                  <c:v>356.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20411</c:v>
+                  <c:v>339.94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26129</c:v>
+                  <c:v>355.88</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24276</c:v>
+                  <c:v>356.53</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8149</c:v>
+                  <c:v>271.58</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14061</c:v>
+                  <c:v>356.59</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15718</c:v>
+                  <c:v>312.61</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13999</c:v>
+                  <c:v>312.47000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14959</c:v>
+                  <c:v>312.44</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22098</c:v>
+                  <c:v>468.98</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26241</c:v>
+                  <c:v>389.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>57131</c:v>
+                  <c:v>226.24</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5946</c:v>
+                  <c:v>186.12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6981</c:v>
+                  <c:v>133.91</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6486</c:v>
+                  <c:v>276.44</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4988</c:v>
+                  <c:v>30.36</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2141</c:v>
+                  <c:v>30.36</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3989</c:v>
+                  <c:v>29.91</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4054</c:v>
+                  <c:v>50.25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>35906</c:v>
+                  <c:v>527.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7977</c:v>
+                  <c:v>280.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1189,88 +1167,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>13528</c:v>
+                  <c:v>156.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6172</c:v>
+                  <c:v>156.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>156.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>156.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1036</c:v>
+                  <c:v>156.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>156.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>389</c:v>
+                  <c:v>155.93</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>885</c:v>
+                  <c:v>156.52000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>998</c:v>
+                  <c:v>156.78</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>989</c:v>
+                  <c:v>10.44</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1995</c:v>
+                  <c:v>10.28</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>997</c:v>
+                  <c:v>156.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1995</c:v>
+                  <c:v>155.94</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1996</c:v>
+                  <c:v>156.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>998</c:v>
+                  <c:v>155.93</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1994</c:v>
+                  <c:v>155.84</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1996</c:v>
+                  <c:v>156.22999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1626</c:v>
+                  <c:v>156.28</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>10.44</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>954</c:v>
+                  <c:v>9.98</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>997</c:v>
+                  <c:v>9.9600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>933</c:v>
+                  <c:v>9.8699999999999992</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>813</c:v>
+                  <c:v>38.74</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>38.47</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>131</c:v>
+                  <c:v>37.78</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>956</c:v>
+                  <c:v>38.67</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1995</c:v>
+                  <c:v>17.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>999</c:v>
+                  <c:v>10.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1419,88 +1397,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>36995</c:v>
+                  <c:v>418.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29988</c:v>
+                  <c:v>156.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32088</c:v>
+                  <c:v>312.08999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42254</c:v>
+                  <c:v>312.41000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>285173</c:v>
+                  <c:v>2353.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17032</c:v>
+                  <c:v>155.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>122214</c:v>
+                  <c:v>1093.51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42058</c:v>
+                  <c:v>312.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>234373</c:v>
+                  <c:v>2030.44</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>394860</c:v>
+                  <c:v>3280.48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>665843</c:v>
+                  <c:v>3248.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>681864</c:v>
+                  <c:v>2492.56</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>204355</c:v>
+                  <c:v>3040.81</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>414022</c:v>
+                  <c:v>3592.21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18315</c:v>
+                  <c:v>586.54999999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>473210</c:v>
+                  <c:v>4547.29</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>840080</c:v>
+                  <c:v>2097.61</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>448430</c:v>
+                  <c:v>2871.93</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>77790</c:v>
+                  <c:v>946.14</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>130750</c:v>
+                  <c:v>1209.19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>84219</c:v>
+                  <c:v>668.51</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>107711</c:v>
+                  <c:v>801.65</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14957</c:v>
+                  <c:v>122.89</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5985</c:v>
+                  <c:v>139.88</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18518</c:v>
+                  <c:v>166.71</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7981</c:v>
+                  <c:v>103.73</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>570321</c:v>
+                  <c:v>572.67999999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>106713</c:v>
+                  <c:v>878.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1649,88 +1627,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>997</c:v>
+                  <c:v>9.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>881</c:v>
+                  <c:v>126.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>996</c:v>
+                  <c:v>156.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>998</c:v>
+                  <c:v>133.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1430</c:v>
+                  <c:v>155.87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1443</c:v>
+                  <c:v>156.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>996</c:v>
+                  <c:v>156.21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>999</c:v>
+                  <c:v>156.21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8747</c:v>
+                  <c:v>156.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3366</c:v>
+                  <c:v>155.85</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13180</c:v>
+                  <c:v>19.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>996</c:v>
+                  <c:v>156.22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1356</c:v>
+                  <c:v>126.06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>997</c:v>
+                  <c:v>155.91</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1995</c:v>
+                  <c:v>155.88999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1960</c:v>
+                  <c:v>156.21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1956</c:v>
+                  <c:v>156.22999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1976</c:v>
+                  <c:v>16.71</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>997</c:v>
+                  <c:v>14.16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1095</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>996</c:v>
+                  <c:v>9.9600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1025</c:v>
+                  <c:v>12.49</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1037</c:v>
+                  <c:v>9.27</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>997</c:v>
+                  <c:v>9.9600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>999</c:v>
+                  <c:v>9.85</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>923</c:v>
+                  <c:v>9.59</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1995</c:v>
+                  <c:v>40.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>997</c:v>
+                  <c:v>21.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1885,88 +1863,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>282</c:v>
+                  <c:v>156.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>998</c:v>
+                  <c:v>9.6199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>998</c:v>
+                  <c:v>156.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>998</c:v>
+                  <c:v>156.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2025</c:v>
+                  <c:v>156.19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>309</c:v>
+                  <c:v>156.24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>996</c:v>
+                  <c:v>156.26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>965</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>997</c:v>
+                  <c:v>153.93</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1994</c:v>
+                  <c:v>156.31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4776</c:v>
+                  <c:v>39.89</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3991</c:v>
+                  <c:v>39.89</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8023</c:v>
+                  <c:v>156.22</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8942</c:v>
+                  <c:v>156.28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5921</c:v>
+                  <c:v>156.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8976</c:v>
+                  <c:v>155.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10003</c:v>
+                  <c:v>155.87</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9035</c:v>
+                  <c:v>177.73</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>997</c:v>
+                  <c:v>9.9600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>996</c:v>
+                  <c:v>11.78</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>504</c:v>
+                  <c:v>9.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>627</c:v>
+                  <c:v>9.9600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>983</c:v>
+                  <c:v>9.94</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>996</c:v>
+                  <c:v>9.9499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>998</c:v>
+                  <c:v>9.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>9.92</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8975</c:v>
+                  <c:v>99.13</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>997</c:v>
+                  <c:v>19.690000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2121,88 +2099,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43750</c:v>
+                  <c:v>428.86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26871</c:v>
+                  <c:v>155.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42882</c:v>
+                  <c:v>312.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45878</c:v>
+                  <c:v>312.04000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>280702</c:v>
+                  <c:v>2343.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15956</c:v>
+                  <c:v>156.21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>126339</c:v>
+                  <c:v>1093.47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38855</c:v>
+                  <c:v>312.44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>248791</c:v>
+                  <c:v>2030.74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>376992</c:v>
+                  <c:v>2905.31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>698794</c:v>
+                  <c:v>2627.98</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>678707</c:v>
+                  <c:v>3478.09</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>107063</c:v>
+                  <c:v>2368.4299999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>312968</c:v>
+                  <c:v>2749.13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>39476</c:v>
+                  <c:v>227.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5625</c:v>
+                  <c:v>4246.9799999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11619</c:v>
+                  <c:v>2366.0700000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>436684</c:v>
+                  <c:v>1973.09</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>76796</c:v>
+                  <c:v>776.66</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>102725</c:v>
+                  <c:v>1018.53</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105718</c:v>
+                  <c:v>668.27</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>111696</c:v>
+                  <c:v>779.19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12962</c:v>
+                  <c:v>79.58</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6819</c:v>
+                  <c:v>147.33000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12964</c:v>
+                  <c:v>97.58</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8943</c:v>
+                  <c:v>82.02</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>559843</c:v>
+                  <c:v>5107.6099999999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>102727</c:v>
+                  <c:v>973.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2357,88 +2335,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>994</c:v>
+                  <c:v>9.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>327</c:v>
+                  <c:v>123.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>223</c:v>
+                  <c:v>126.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>995</c:v>
+                  <c:v>123.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>998</c:v>
+                  <c:v>156.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1088</c:v>
+                  <c:v>156.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>603</c:v>
+                  <c:v>156.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>997</c:v>
+                  <c:v>156.21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>666</c:v>
+                  <c:v>17.170000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1977</c:v>
+                  <c:v>155.88</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2206</c:v>
+                  <c:v>156.53</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1376</c:v>
+                  <c:v>104.89</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1651</c:v>
+                  <c:v>155.88999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2604</c:v>
+                  <c:v>155.9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2112</c:v>
+                  <c:v>156.19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2957</c:v>
+                  <c:v>155.94</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3477</c:v>
+                  <c:v>155.83000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2994</c:v>
+                  <c:v>123.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1041</c:v>
+                  <c:v>10.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>794</c:v>
+                  <c:v>16.36</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>800</c:v>
+                  <c:v>9.9600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>918</c:v>
+                  <c:v>10.119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>767</c:v>
+                  <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>503</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>217</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>404</c:v>
+                  <c:v>10.130000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3988</c:v>
+                  <c:v>33.47</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>997</c:v>
+                  <c:v>45.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3773,88 +3751,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>15205</c:v>
+                  <c:v>359.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16486</c:v>
+                  <c:v>255.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6725</c:v>
+                  <c:v>356.21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15757</c:v>
+                  <c:v>355.93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6248</c:v>
+                  <c:v>356.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9307</c:v>
+                  <c:v>356.23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15089</c:v>
+                  <c:v>385.62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6831</c:v>
+                  <c:v>356.45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8971</c:v>
+                  <c:v>356.53</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19896</c:v>
+                  <c:v>312.51</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20836</c:v>
+                  <c:v>312.45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10591</c:v>
+                  <c:v>312.12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29899</c:v>
+                  <c:v>356.22</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23936</c:v>
+                  <c:v>468.69</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45878</c:v>
+                  <c:v>312.83</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51281</c:v>
+                  <c:v>312.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49865</c:v>
+                  <c:v>312.49</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>68595</c:v>
+                  <c:v>519.42999999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40892</c:v>
+                  <c:v>510.36</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4650</c:v>
+                  <c:v>341.65</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45174</c:v>
+                  <c:v>497.98</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43124</c:v>
+                  <c:v>471.11</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54896</c:v>
+                  <c:v>402.29</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4655</c:v>
+                  <c:v>520.03</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51859</c:v>
+                  <c:v>336.58</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52072</c:v>
+                  <c:v>330.29</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>58254</c:v>
+                  <c:v>414.01</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>49439</c:v>
+                  <c:v>385.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4003,88 +3981,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>13528</c:v>
+                  <c:v>156.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6172</c:v>
+                  <c:v>156.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>156.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>156.07</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1036</c:v>
+                  <c:v>156.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>156.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>389</c:v>
+                  <c:v>155.93</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>885</c:v>
+                  <c:v>156.52000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>998</c:v>
+                  <c:v>156.78</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>989</c:v>
+                  <c:v>10.44</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1995</c:v>
+                  <c:v>10.28</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>997</c:v>
+                  <c:v>156.25</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1995</c:v>
+                  <c:v>155.94</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1996</c:v>
+                  <c:v>156.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>998</c:v>
+                  <c:v>155.93</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1994</c:v>
+                  <c:v>155.84</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1996</c:v>
+                  <c:v>156.22999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1626</c:v>
+                  <c:v>156.28</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>10.44</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>954</c:v>
+                  <c:v>9.98</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>997</c:v>
+                  <c:v>9.9600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>933</c:v>
+                  <c:v>9.8699999999999992</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>813</c:v>
+                  <c:v>38.74</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>38.47</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>131</c:v>
+                  <c:v>37.78</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>956</c:v>
+                  <c:v>38.67</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1995</c:v>
+                  <c:v>17.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>999</c:v>
+                  <c:v>10.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4233,88 +4211,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>282</c:v>
+                  <c:v>156.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>998</c:v>
+                  <c:v>9.6199999999999992</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>998</c:v>
+                  <c:v>156.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>998</c:v>
+                  <c:v>156.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2025</c:v>
+                  <c:v>156.19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>309</c:v>
+                  <c:v>156.24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>996</c:v>
+                  <c:v>156.26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>965</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>997</c:v>
+                  <c:v>153.93</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1994</c:v>
+                  <c:v>156.31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4776</c:v>
+                  <c:v>39.89</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3991</c:v>
+                  <c:v>39.89</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8023</c:v>
+                  <c:v>156.22</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8942</c:v>
+                  <c:v>156.28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5921</c:v>
+                  <c:v>156.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8976</c:v>
+                  <c:v>155.87</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10003</c:v>
+                  <c:v>155.87</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9035</c:v>
+                  <c:v>177.73</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>997</c:v>
+                  <c:v>9.9600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>996</c:v>
+                  <c:v>11.78</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>504</c:v>
+                  <c:v>9.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>627</c:v>
+                  <c:v>9.9600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>983</c:v>
+                  <c:v>9.94</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>996</c:v>
+                  <c:v>9.9499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>998</c:v>
+                  <c:v>9.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>9.92</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8975</c:v>
+                  <c:v>99.13</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>997</c:v>
+                  <c:v>19.690000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4711,88 +4689,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>3027</c:v>
+                  <c:v>135.51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2359</c:v>
+                  <c:v>256.54000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6678</c:v>
+                  <c:v>294.16000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5806</c:v>
+                  <c:v>259.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5310</c:v>
+                  <c:v>355.87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5389</c:v>
+                  <c:v>356.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12392</c:v>
+                  <c:v>356.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14158</c:v>
+                  <c:v>356.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20411</c:v>
+                  <c:v>339.94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26129</c:v>
+                  <c:v>355.88</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24276</c:v>
+                  <c:v>356.53</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8149</c:v>
+                  <c:v>271.58</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14061</c:v>
+                  <c:v>356.59</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15718</c:v>
+                  <c:v>312.61</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13999</c:v>
+                  <c:v>312.47000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14959</c:v>
+                  <c:v>312.44</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22098</c:v>
+                  <c:v>468.98</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26241</c:v>
+                  <c:v>389.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>57131</c:v>
+                  <c:v>226.24</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5946</c:v>
+                  <c:v>186.12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6981</c:v>
+                  <c:v>133.91</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6486</c:v>
+                  <c:v>276.44</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4988</c:v>
+                  <c:v>30.36</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2141</c:v>
+                  <c:v>30.36</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3989</c:v>
+                  <c:v>29.91</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4054</c:v>
+                  <c:v>50.25</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>35906</c:v>
+                  <c:v>527.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7977</c:v>
+                  <c:v>280.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4941,88 +4919,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>997</c:v>
+                  <c:v>9.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>881</c:v>
+                  <c:v>126.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>996</c:v>
+                  <c:v>156.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>998</c:v>
+                  <c:v>133.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1430</c:v>
+                  <c:v>155.87</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1443</c:v>
+                  <c:v>156.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>996</c:v>
+                  <c:v>156.21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>999</c:v>
+                  <c:v>156.21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8747</c:v>
+                  <c:v>156.22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3366</c:v>
+                  <c:v>155.85</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13180</c:v>
+                  <c:v>19.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>996</c:v>
+                  <c:v>156.22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1356</c:v>
+                  <c:v>126.06</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>997</c:v>
+                  <c:v>155.91</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1995</c:v>
+                  <c:v>155.88999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1960</c:v>
+                  <c:v>156.21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1956</c:v>
+                  <c:v>156.22999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1976</c:v>
+                  <c:v>16.71</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>997</c:v>
+                  <c:v>14.16</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1095</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>996</c:v>
+                  <c:v>9.9600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1025</c:v>
+                  <c:v>12.49</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1037</c:v>
+                  <c:v>9.27</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>997</c:v>
+                  <c:v>9.9600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>999</c:v>
+                  <c:v>9.85</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>923</c:v>
+                  <c:v>9.59</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1995</c:v>
+                  <c:v>40.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>997</c:v>
+                  <c:v>21.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5171,88 +5149,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>994</c:v>
+                  <c:v>9.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>327</c:v>
+                  <c:v>123.18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>223</c:v>
+                  <c:v>126.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>995</c:v>
+                  <c:v>123.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>998</c:v>
+                  <c:v>156.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1088</c:v>
+                  <c:v>156.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>603</c:v>
+                  <c:v>156.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>997</c:v>
+                  <c:v>156.21</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>666</c:v>
+                  <c:v>17.170000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1977</c:v>
+                  <c:v>155.88</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2206</c:v>
+                  <c:v>156.53</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1376</c:v>
+                  <c:v>104.89</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1651</c:v>
+                  <c:v>155.88999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2604</c:v>
+                  <c:v>155.9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2112</c:v>
+                  <c:v>156.19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2957</c:v>
+                  <c:v>155.94</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3477</c:v>
+                  <c:v>155.83000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2994</c:v>
+                  <c:v>123.82</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1041</c:v>
+                  <c:v>10.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>794</c:v>
+                  <c:v>16.36</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>800</c:v>
+                  <c:v>9.9600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>918</c:v>
+                  <c:v>10.119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>767</c:v>
+                  <c:v>5.25</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>503</c:v>
+                  <c:v>10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>217</c:v>
+                  <c:v>10.3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>404</c:v>
+                  <c:v>10.130000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3988</c:v>
+                  <c:v>33.47</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>997</c:v>
+                  <c:v>45.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5649,88 +5627,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>142102</c:v>
+                  <c:v>936.97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99732</c:v>
+                  <c:v>624.83000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98326</c:v>
+                  <c:v>781.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>103224</c:v>
+                  <c:v>781.04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>721654</c:v>
+                  <c:v>5155.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48216</c:v>
+                  <c:v>468.62</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>251521</c:v>
+                  <c:v>2639.17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83664</c:v>
+                  <c:v>781.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>494677</c:v>
+                  <c:v>4842.9399999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6747.87</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>532582</c:v>
+                  <c:v>6034.9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>372161</c:v>
+                  <c:v>6340.85</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>716119</c:v>
+                  <c:v>6950.18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>703432</c:v>
+                  <c:v>7513.98</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>66698</c:v>
+                  <c:v>7762.71</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>470940</c:v>
+                  <c:v>9632.0499999999993</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>850700</c:v>
+                  <c:v>6139.18</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>648276</c:v>
+                  <c:v>8124.83</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>206447</c:v>
+                  <c:v>3153.92</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>256307</c:v>
+                  <c:v>2835.28</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>195310</c:v>
+                  <c:v>2184.2399999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>272499</c:v>
+                  <c:v>2514.7199999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>36457</c:v>
+                  <c:v>401.42</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25932</c:v>
+                  <c:v>349.17</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>39764</c:v>
+                  <c:v>366.52</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20802</c:v>
+                  <c:v>313.56</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>637268</c:v>
+                  <c:v>6048.92</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>340091</c:v>
+                  <c:v>2567.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5879,88 +5857,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>36995</c:v>
+                  <c:v>418.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29988</c:v>
+                  <c:v>156.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32088</c:v>
+                  <c:v>312.08999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42254</c:v>
+                  <c:v>312.41000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>285173</c:v>
+                  <c:v>2353.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17032</c:v>
+                  <c:v>155.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>122214</c:v>
+                  <c:v>1093.51</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42058</c:v>
+                  <c:v>312.07</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>234373</c:v>
+                  <c:v>2030.44</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>394860</c:v>
+                  <c:v>3280.48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>665843</c:v>
+                  <c:v>3248.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>681864</c:v>
+                  <c:v>2492.56</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>204355</c:v>
+                  <c:v>3040.81</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>414022</c:v>
+                  <c:v>3592.21</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18315</c:v>
+                  <c:v>586.54999999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>473210</c:v>
+                  <c:v>4547.29</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>840080</c:v>
+                  <c:v>2097.61</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>448430</c:v>
+                  <c:v>2871.93</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>77790</c:v>
+                  <c:v>946.14</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>130750</c:v>
+                  <c:v>1209.19</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>84219</c:v>
+                  <c:v>668.51</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>107711</c:v>
+                  <c:v>801.65</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14957</c:v>
+                  <c:v>122.89</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5985</c:v>
+                  <c:v>139.88</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18518</c:v>
+                  <c:v>166.71</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7981</c:v>
+                  <c:v>103.73</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>570321</c:v>
+                  <c:v>572.67999999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>106713</c:v>
+                  <c:v>878.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6109,88 +6087,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>43750</c:v>
+                  <c:v>428.86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26871</c:v>
+                  <c:v>155.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42882</c:v>
+                  <c:v>312.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45878</c:v>
+                  <c:v>312.04000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>280702</c:v>
+                  <c:v>2343.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15956</c:v>
+                  <c:v>156.21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>126339</c:v>
+                  <c:v>1093.47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38855</c:v>
+                  <c:v>312.44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>248791</c:v>
+                  <c:v>2030.74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>376992</c:v>
+                  <c:v>2905.31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>698794</c:v>
+                  <c:v>2627.98</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>678707</c:v>
+                  <c:v>3478.09</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>107063</c:v>
+                  <c:v>2368.4299999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>312968</c:v>
+                  <c:v>2749.13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>39476</c:v>
+                  <c:v>227.25</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5625</c:v>
+                  <c:v>4246.9799999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11619</c:v>
+                  <c:v>2366.0700000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>436684</c:v>
+                  <c:v>1973.09</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>76796</c:v>
+                  <c:v>776.66</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>102725</c:v>
+                  <c:v>1018.53</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105718</c:v>
+                  <c:v>668.27</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>111696</c:v>
+                  <c:v>779.19</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12962</c:v>
+                  <c:v>79.58</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6819</c:v>
+                  <c:v>147.33000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12964</c:v>
+                  <c:v>97.58</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8943</c:v>
+                  <c:v>82.02</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>559843</c:v>
+                  <c:v>5107.6099999999997</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>102727</c:v>
+                  <c:v>973.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9148,16 +9126,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>104235</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>30192</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>479463</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>131215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>470858</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>153358</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>131553</xdr:rowOff>
+      <xdr:rowOff>44962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9208,16 +9186,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>113222</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>39177</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>445155</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>107831</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>353173</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>170730</xdr:rowOff>
+      <xdr:rowOff>11980</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9542,7 +9520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9602,89 +9582,80 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10">
-        <v>15205</v>
-      </c>
-      <c r="C2" s="10">
-        <v>142102</v>
-      </c>
-      <c r="D2" s="10">
-        <v>3027</v>
-      </c>
-      <c r="E2" s="10">
-        <v>13528</v>
-      </c>
-      <c r="F2" s="10">
-        <v>36995</v>
-      </c>
-      <c r="G2" s="10">
-        <v>997</v>
-      </c>
-      <c r="H2" s="10">
-        <v>282</v>
-      </c>
-      <c r="I2" s="10">
-        <v>43750</v>
-      </c>
-      <c r="J2" s="10">
-        <v>994</v>
-      </c>
-      <c r="K2" s="10">
+      <c r="B2" s="6">
+        <v>359.82</v>
+      </c>
+      <c r="C2" s="6">
+        <v>936.97</v>
+      </c>
+      <c r="D2" s="6">
+        <v>135.51</v>
+      </c>
+      <c r="E2" s="6">
+        <v>156.04</v>
+      </c>
+      <c r="F2" s="6">
+        <v>418.88</v>
+      </c>
+      <c r="G2" s="6">
+        <v>9.67</v>
+      </c>
+      <c r="H2" s="6">
+        <v>156.19999999999999</v>
+      </c>
+      <c r="I2" s="6">
+        <v>428.86</v>
+      </c>
+      <c r="J2" s="6">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="K2" s="6">
         <v>83.945400000000006</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="6">
         <v>62.582900000000002</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="6">
         <v>11.3985</v>
       </c>
-      <c r="N2" s="11" t="b">
-        <f>IF(B2&gt;E2+H2,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="O2" s="11" t="b">
-        <f t="shared" ref="O2:P17" si="0">IF(C2&gt;F2+I2,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="P2" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q2" s="11"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3">
-        <v>16486</v>
+        <v>255.9</v>
       </c>
       <c r="C3" s="3">
-        <v>99732</v>
+        <v>624.83000000000004</v>
       </c>
       <c r="D3" s="3">
-        <v>2359</v>
+        <v>256.54000000000002</v>
       </c>
       <c r="E3" s="3">
-        <v>6172</v>
+        <v>156.16</v>
       </c>
       <c r="F3" s="3">
-        <v>29988</v>
+        <v>156.19999999999999</v>
       </c>
       <c r="G3" s="3">
-        <v>881</v>
+        <v>126.21</v>
       </c>
       <c r="H3" s="3">
-        <v>998</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="I3" s="3">
-        <v>26871</v>
+        <v>155.88</v>
       </c>
       <c r="J3" s="3">
-        <v>327</v>
+        <v>123.18</v>
       </c>
       <c r="K3" s="3">
         <v>140.3021</v>
@@ -9695,49 +9666,41 @@
       <c r="M3" s="3">
         <v>23.294599999999999</v>
       </c>
-      <c r="N3" t="b">
-        <f t="shared" ref="N3:N29" si="1">IF(B3&gt;E3+H3,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="O3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>6725</v>
+        <v>356.21</v>
       </c>
       <c r="C4" s="3">
-        <v>98326</v>
+        <v>781.06</v>
       </c>
       <c r="D4" s="3">
-        <v>6678</v>
+        <v>294.16000000000003</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>156.06</v>
       </c>
       <c r="F4" s="3">
-        <v>32088</v>
+        <v>312.08999999999997</v>
       </c>
       <c r="G4" s="3">
-        <v>996</v>
+        <v>156.24</v>
       </c>
       <c r="H4" s="3">
-        <v>998</v>
+        <v>156.22</v>
       </c>
       <c r="I4" s="3">
-        <v>42882</v>
+        <v>312.05</v>
       </c>
       <c r="J4" s="3">
-        <v>223</v>
+        <v>126.22</v>
       </c>
       <c r="K4" s="3">
         <v>158.9794</v>
@@ -9748,49 +9711,41 @@
       <c r="M4" s="3">
         <v>35.663699999999999</v>
       </c>
-      <c r="N4" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O4" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P4" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3">
-        <v>15757</v>
+        <v>355.93</v>
       </c>
       <c r="C5" s="3">
-        <v>103224</v>
+        <v>781.04</v>
       </c>
       <c r="D5" s="3">
-        <v>5806</v>
+        <v>259.60000000000002</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>156.07</v>
       </c>
       <c r="F5" s="3">
-        <v>42254</v>
+        <v>312.41000000000003</v>
       </c>
       <c r="G5" s="3">
-        <v>998</v>
+        <v>133.81</v>
       </c>
       <c r="H5" s="3">
-        <v>998</v>
+        <v>156.21</v>
       </c>
       <c r="I5" s="3">
-        <v>45878</v>
+        <v>312.04000000000002</v>
       </c>
       <c r="J5" s="3">
-        <v>995</v>
+        <v>123.21</v>
       </c>
       <c r="K5" s="3">
         <v>132.62459999999999</v>
@@ -9801,103 +9756,86 @@
       <c r="M5" s="3">
         <v>18.084900000000001</v>
       </c>
-      <c r="N5" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="10">
-        <v>6248</v>
-      </c>
-      <c r="C6" s="10">
-        <v>721654</v>
-      </c>
-      <c r="D6" s="10">
-        <v>5310</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1036</v>
-      </c>
-      <c r="F6" s="10">
-        <v>285173</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1430</v>
-      </c>
-      <c r="H6" s="10">
-        <v>2025</v>
-      </c>
-      <c r="I6" s="10">
-        <v>280702</v>
-      </c>
-      <c r="J6" s="10">
-        <v>998</v>
-      </c>
-      <c r="K6" s="10">
+      <c r="B6" s="6">
+        <v>356.22</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5155.3999999999996</v>
+      </c>
+      <c r="D6" s="6">
+        <v>355.87</v>
+      </c>
+      <c r="E6" s="6">
+        <v>156.21</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2353.6</v>
+      </c>
+      <c r="G6" s="6">
+        <v>155.87</v>
+      </c>
+      <c r="H6" s="6">
+        <v>156.19</v>
+      </c>
+      <c r="I6" s="6">
+        <v>2343.17</v>
+      </c>
+      <c r="J6" s="6">
+        <v>156.21</v>
+      </c>
+      <c r="K6" s="6">
         <v>132.357</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="6">
         <v>101.0622</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="6">
         <v>17.724799999999998</v>
       </c>
-      <c r="N6" s="11" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O6" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P6" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q6" s="11"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="3">
-        <v>9307</v>
-      </c>
-      <c r="C7" s="3">
-        <v>48216</v>
+        <v>356.23</v>
+      </c>
+      <c r="C7" s="6">
+        <v>468.62</v>
       </c>
       <c r="D7" s="3">
-        <v>5389</v>
+        <v>356.22</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>156.12</v>
       </c>
       <c r="F7" s="3">
-        <v>17032</v>
+        <v>155.88</v>
       </c>
       <c r="G7" s="3">
-        <v>1443</v>
+        <v>156.22</v>
       </c>
       <c r="H7" s="3">
-        <v>309</v>
+        <v>156.24</v>
       </c>
       <c r="I7" s="3">
-        <v>15956</v>
+        <v>156.21</v>
       </c>
       <c r="J7" s="3">
-        <v>1088</v>
+        <v>156.22</v>
       </c>
       <c r="K7" s="3">
         <v>87.919799999999995</v>
@@ -9908,49 +9846,41 @@
       <c r="M7" s="3">
         <v>4.6528</v>
       </c>
-      <c r="N7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O7" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P7" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="3">
-        <v>15089</v>
+        <v>385.62</v>
       </c>
       <c r="C8" s="3">
-        <v>251521</v>
+        <v>2639.17</v>
       </c>
       <c r="D8" s="3">
-        <v>12392</v>
+        <v>356.22</v>
       </c>
       <c r="E8" s="3">
-        <v>389</v>
+        <v>155.93</v>
       </c>
       <c r="F8" s="3">
-        <v>122214</v>
+        <v>1093.51</v>
       </c>
       <c r="G8" s="3">
-        <v>996</v>
+        <v>156.21</v>
       </c>
       <c r="H8" s="3">
-        <v>996</v>
+        <v>156.26</v>
       </c>
       <c r="I8" s="3">
-        <v>126339</v>
+        <v>1093.47</v>
       </c>
       <c r="J8" s="3">
-        <v>603</v>
+        <v>156.76</v>
       </c>
       <c r="K8" s="3">
         <v>137.34829999999999</v>
@@ -9961,49 +9891,41 @@
       <c r="M8" s="3">
         <v>11.242800000000001</v>
       </c>
-      <c r="N8" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O8" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P8" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>6831</v>
+        <v>356.45</v>
       </c>
       <c r="C9" s="3">
-        <v>83664</v>
+        <v>781.07</v>
       </c>
       <c r="D9" s="3">
-        <v>14158</v>
+        <v>356.2</v>
       </c>
       <c r="E9" s="3">
-        <v>885</v>
+        <v>156.52000000000001</v>
       </c>
       <c r="F9" s="3">
-        <v>42058</v>
+        <v>312.07</v>
       </c>
       <c r="G9" s="3">
-        <v>999</v>
+        <v>156.21</v>
       </c>
       <c r="H9" s="3">
-        <v>965</v>
+        <v>10</v>
       </c>
       <c r="I9" s="3">
-        <v>38855</v>
+        <v>312.44</v>
       </c>
       <c r="J9" s="3">
-        <v>997</v>
+        <v>156.21</v>
       </c>
       <c r="K9" s="3">
         <v>108.0232</v>
@@ -10014,49 +9936,41 @@
       <c r="M9" s="3">
         <v>13.443199999999999</v>
       </c>
-      <c r="N9" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O9" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P9" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3">
-        <v>8971</v>
+        <v>356.53</v>
       </c>
       <c r="C10" s="3">
-        <v>494677</v>
+        <v>4842.9399999999996</v>
       </c>
       <c r="D10" s="3">
-        <v>20411</v>
+        <v>339.94</v>
       </c>
       <c r="E10" s="3">
-        <v>998</v>
+        <v>156.78</v>
       </c>
       <c r="F10" s="3">
-        <v>234373</v>
+        <v>2030.44</v>
       </c>
       <c r="G10" s="3">
-        <v>8747</v>
+        <v>156.22</v>
       </c>
       <c r="H10" s="3">
-        <v>997</v>
+        <v>153.93</v>
       </c>
       <c r="I10" s="3">
-        <v>248791</v>
+        <v>2030.74</v>
       </c>
       <c r="J10" s="3">
-        <v>666</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="K10" s="3">
         <v>153</v>
@@ -10067,49 +9981,41 @@
       <c r="M10" s="3">
         <v>16.509699999999999</v>
       </c>
-      <c r="N10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O10" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P10" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="6">
-        <v>19896</v>
+        <v>312.51</v>
       </c>
       <c r="C11" s="6">
-        <v>0</v>
+        <v>6747.87</v>
       </c>
       <c r="D11" s="6">
-        <v>26129</v>
+        <v>355.88</v>
       </c>
       <c r="E11" s="6">
-        <v>989</v>
+        <v>10.44</v>
       </c>
       <c r="F11" s="6">
-        <v>394860</v>
+        <v>3280.48</v>
       </c>
       <c r="G11" s="6">
-        <v>3366</v>
+        <v>155.85</v>
       </c>
       <c r="H11" s="6">
-        <v>1994</v>
+        <v>156.31</v>
       </c>
       <c r="I11" s="6">
-        <v>376992</v>
+        <v>2905.31</v>
       </c>
       <c r="J11" s="6">
-        <v>1977</v>
+        <v>155.88</v>
       </c>
       <c r="K11" s="6">
         <v>86.981200000000001</v>
@@ -10120,52 +10026,37 @@
       <c r="M11" s="6">
         <v>5.8864999999999998</v>
       </c>
-      <c r="N11" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O11" s="7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="7" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q11" s="7" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="6">
-        <v>20836</v>
+        <v>312.45</v>
       </c>
       <c r="C12" s="6">
-        <v>532582</v>
+        <v>6034.9</v>
       </c>
       <c r="D12" s="6">
-        <v>24276</v>
+        <v>356.53</v>
       </c>
       <c r="E12" s="6">
-        <v>1995</v>
+        <v>10.28</v>
       </c>
       <c r="F12" s="6">
-        <v>665843</v>
+        <v>3248.4</v>
       </c>
       <c r="G12" s="6">
-        <v>13180</v>
+        <v>19.75</v>
       </c>
       <c r="H12" s="6">
-        <v>4776</v>
+        <v>39.89</v>
       </c>
       <c r="I12" s="6">
-        <v>698794</v>
+        <v>2627.98</v>
       </c>
       <c r="J12" s="6">
-        <v>2206</v>
+        <v>156.53</v>
       </c>
       <c r="K12" s="6">
         <v>149.84399999999999</v>
@@ -10176,52 +10067,37 @@
       <c r="M12" s="6">
         <v>30.6584</v>
       </c>
-      <c r="N12" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="7" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q12" s="7" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="6">
-        <v>10591</v>
+        <v>312.12</v>
       </c>
       <c r="C13" s="6">
-        <v>372161</v>
+        <v>6340.85</v>
       </c>
       <c r="D13" s="6">
-        <v>8149</v>
+        <v>271.58</v>
       </c>
       <c r="E13" s="6">
-        <v>997</v>
+        <v>156.25</v>
       </c>
       <c r="F13" s="6">
-        <v>681864</v>
+        <v>2492.56</v>
       </c>
       <c r="G13" s="6">
-        <v>996</v>
+        <v>156.22</v>
       </c>
       <c r="H13" s="6">
-        <v>3991</v>
+        <v>39.89</v>
       </c>
       <c r="I13" s="6">
-        <v>678707</v>
+        <v>3478.09</v>
       </c>
       <c r="J13" s="6">
-        <v>1376</v>
+        <v>104.89</v>
       </c>
       <c r="K13" s="6">
         <v>134.70830000000001</v>
@@ -10232,106 +10108,82 @@
       <c r="M13" s="6">
         <v>37.425699999999999</v>
       </c>
-      <c r="N13" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O13" s="7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="7" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q13" s="7" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="10">
-        <v>29899</v>
-      </c>
-      <c r="C14" s="10">
-        <v>716119</v>
-      </c>
-      <c r="D14" s="10">
-        <v>14061</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1995</v>
-      </c>
-      <c r="F14" s="10">
-        <v>204355</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1356</v>
-      </c>
-      <c r="H14" s="10">
-        <v>8023</v>
-      </c>
-      <c r="I14" s="10">
-        <v>107063</v>
-      </c>
-      <c r="J14" s="10">
-        <v>1651</v>
-      </c>
-      <c r="K14" s="10">
+      <c r="B14" s="6">
+        <v>356.22</v>
+      </c>
+      <c r="C14" s="6">
+        <v>6950.18</v>
+      </c>
+      <c r="D14" s="6">
+        <v>356.59</v>
+      </c>
+      <c r="E14" s="6">
+        <v>155.94</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3040.81</v>
+      </c>
+      <c r="G14" s="6">
+        <v>126.06</v>
+      </c>
+      <c r="H14" s="6">
+        <v>156.22</v>
+      </c>
+      <c r="I14" s="6">
+        <v>2368.4299999999998</v>
+      </c>
+      <c r="J14" s="6">
+        <v>155.88999999999999</v>
+      </c>
+      <c r="K14" s="6">
         <v>135.48679999999999</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="6">
         <v>60.474499999999999</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="6">
         <v>36.453499999999998</v>
       </c>
-      <c r="N14" s="11" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O14" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P14" s="11" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q14" s="11"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="6">
-        <v>23936</v>
+        <v>468.69</v>
       </c>
       <c r="C15" s="6">
-        <v>703432</v>
+        <v>7513.98</v>
       </c>
       <c r="D15" s="6">
-        <v>15718</v>
+        <v>312.61</v>
       </c>
       <c r="E15" s="6">
-        <v>1996</v>
+        <v>156.19999999999999</v>
       </c>
       <c r="F15" s="6">
-        <v>414022</v>
+        <v>3592.21</v>
       </c>
       <c r="G15" s="6">
-        <v>997</v>
+        <v>155.91</v>
       </c>
       <c r="H15" s="6">
-        <v>8942</v>
+        <v>156.28</v>
       </c>
       <c r="I15" s="6">
-        <v>312968</v>
+        <v>2749.13</v>
       </c>
       <c r="J15" s="6">
-        <v>2604</v>
+        <v>155.9</v>
       </c>
       <c r="K15" s="6">
         <v>131.9075</v>
@@ -10341,21 +10193,6 @@
       </c>
       <c r="M15" s="6">
         <v>25.665199999999999</v>
-      </c>
-      <c r="N15" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="7" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q15" s="7" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -10363,31 +10200,31 @@
         <v>24</v>
       </c>
       <c r="B16" s="3">
-        <v>45878</v>
+        <v>312.83</v>
       </c>
       <c r="C16" s="3">
-        <v>66698</v>
+        <v>7762.71</v>
       </c>
       <c r="D16" s="3">
-        <v>13999</v>
+        <v>312.47000000000003</v>
       </c>
       <c r="E16" s="3">
-        <v>998</v>
+        <v>155.93</v>
       </c>
       <c r="F16" s="3">
-        <v>18315</v>
+        <v>586.54999999999995</v>
       </c>
       <c r="G16" s="3">
-        <v>1995</v>
+        <v>155.88999999999999</v>
       </c>
       <c r="H16" s="3">
-        <v>5921</v>
+        <v>156.25</v>
       </c>
       <c r="I16" s="3">
-        <v>39476</v>
+        <v>227.25</v>
       </c>
       <c r="J16" s="3">
-        <v>2112</v>
+        <v>156.19</v>
       </c>
       <c r="K16" s="3">
         <v>284.3775</v>
@@ -10398,49 +10235,41 @@
       <c r="M16" s="3">
         <v>55.639299999999999</v>
       </c>
-      <c r="N16" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O16" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P16" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="6">
-        <v>51281</v>
+        <v>312.75</v>
       </c>
       <c r="C17" s="6">
-        <v>470940</v>
+        <v>9632.0499999999993</v>
       </c>
       <c r="D17" s="6">
-        <v>14959</v>
+        <v>312.44</v>
       </c>
       <c r="E17" s="6">
-        <v>1994</v>
+        <v>155.84</v>
       </c>
       <c r="F17" s="6">
-        <v>473210</v>
+        <v>4547.29</v>
       </c>
       <c r="G17" s="6">
-        <v>1960</v>
+        <v>156.21</v>
       </c>
       <c r="H17" s="6">
-        <v>8976</v>
+        <v>155.87</v>
       </c>
       <c r="I17" s="6">
-        <v>5625</v>
+        <v>4246.9799999999996</v>
       </c>
       <c r="J17" s="6">
-        <v>2957</v>
+        <v>155.94</v>
       </c>
       <c r="K17" s="6">
         <v>219.97749999999999</v>
@@ -10450,21 +10279,6 @@
       </c>
       <c r="M17" s="6">
         <v>21.405200000000001</v>
-      </c>
-      <c r="N17" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="7" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q17" s="7" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -10472,31 +10286,31 @@
         <v>26</v>
       </c>
       <c r="B18" s="6">
-        <v>49865</v>
+        <v>312.49</v>
       </c>
       <c r="C18" s="6">
-        <v>850700</v>
+        <v>6139.18</v>
       </c>
       <c r="D18" s="6">
-        <v>22098</v>
+        <v>468.98</v>
       </c>
       <c r="E18" s="6">
-        <v>1996</v>
+        <v>156.22999999999999</v>
       </c>
       <c r="F18" s="6">
-        <v>840080</v>
+        <v>2097.61</v>
       </c>
       <c r="G18" s="6">
-        <v>1956</v>
+        <v>156.22999999999999</v>
       </c>
       <c r="H18" s="6">
-        <v>10003</v>
+        <v>155.87</v>
       </c>
       <c r="I18" s="6">
-        <v>11619</v>
+        <v>2366.0700000000002</v>
       </c>
       <c r="J18" s="6">
-        <v>3477</v>
+        <v>155.83000000000001</v>
       </c>
       <c r="K18" s="6">
         <v>177.81270000000001</v>
@@ -10507,52 +10321,41 @@
       <c r="M18" s="6">
         <v>25.389700000000001</v>
       </c>
-      <c r="N18" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="7" t="b">
-        <f t="shared" ref="O18:O29" si="2">IF(C18&gt;F18+I18,TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="7" t="b">
-        <f t="shared" ref="P18:P29" si="3">IF(D18&gt;G18+J18,TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="Q18" s="7" t="b">
-        <v>0</v>
-      </c>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="6">
-        <v>68595</v>
+        <v>519.42999999999995</v>
       </c>
       <c r="C19" s="6">
-        <v>648276</v>
+        <v>8124.83</v>
       </c>
       <c r="D19" s="6">
-        <v>26241</v>
+        <v>389.6</v>
       </c>
       <c r="E19" s="6">
-        <v>1626</v>
+        <v>156.28</v>
       </c>
       <c r="F19" s="6">
-        <v>448430</v>
+        <v>2871.93</v>
       </c>
       <c r="G19" s="6">
-        <v>1976</v>
+        <v>16.71</v>
       </c>
       <c r="H19" s="6">
-        <v>9035</v>
+        <v>177.73</v>
       </c>
       <c r="I19" s="6">
-        <v>436684</v>
+        <v>1973.09</v>
       </c>
       <c r="J19" s="6">
-        <v>2994</v>
+        <v>123.82</v>
       </c>
       <c r="K19" s="6">
         <v>182.0719</v>
@@ -10563,52 +10366,41 @@
       <c r="M19" s="6">
         <v>34.869399999999999</v>
       </c>
-      <c r="N19" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="7" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="7" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q19" s="7" t="b">
-        <v>0</v>
-      </c>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="3">
-        <v>40892</v>
+        <v>510.36</v>
       </c>
       <c r="C20" s="3">
-        <v>206447</v>
+        <v>3153.92</v>
       </c>
       <c r="D20" s="3">
-        <v>57131</v>
+        <v>226.24</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>10.44</v>
       </c>
       <c r="F20" s="3">
-        <v>77790</v>
+        <v>946.14</v>
       </c>
       <c r="G20" s="3">
-        <v>997</v>
+        <v>14.16</v>
       </c>
       <c r="H20" s="3">
-        <v>997</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="I20" s="3">
-        <v>76796</v>
+        <v>776.66</v>
       </c>
       <c r="J20" s="3">
-        <v>1041</v>
+        <v>10.25</v>
       </c>
       <c r="K20" s="3">
         <v>112.7855</v>
@@ -10619,49 +10411,41 @@
       <c r="M20" s="3">
         <v>10.8078</v>
       </c>
-      <c r="N20" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O20" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P20" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="3">
-        <v>4650</v>
+        <v>341.65</v>
       </c>
       <c r="C21" s="3">
-        <v>256307</v>
+        <v>2835.28</v>
       </c>
       <c r="D21" s="3">
-        <v>5946</v>
+        <v>186.12</v>
       </c>
       <c r="E21" s="3">
-        <v>954</v>
+        <v>9.98</v>
       </c>
       <c r="F21" s="3">
-        <v>130750</v>
+        <v>1209.19</v>
       </c>
       <c r="G21" s="3">
-        <v>1095</v>
+        <v>10</v>
       </c>
       <c r="H21" s="3">
-        <v>996</v>
+        <v>11.78</v>
       </c>
       <c r="I21" s="3">
-        <v>102725</v>
+        <v>1018.53</v>
       </c>
       <c r="J21" s="3">
-        <v>794</v>
+        <v>16.36</v>
       </c>
       <c r="K21" s="3">
         <v>126.8267</v>
@@ -10672,49 +10456,41 @@
       <c r="M21" s="3">
         <v>12.115399999999999</v>
       </c>
-      <c r="N21" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O21" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P21" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="3">
-        <v>45174</v>
+        <v>497.98</v>
       </c>
       <c r="C22" s="3">
-        <v>195310</v>
+        <v>2184.2399999999998</v>
       </c>
       <c r="D22" s="3">
-        <v>6981</v>
+        <v>133.91</v>
       </c>
       <c r="E22" s="3">
-        <v>997</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="F22" s="3">
-        <v>84219</v>
+        <v>668.51</v>
       </c>
       <c r="G22" s="3">
-        <v>996</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="H22" s="3">
-        <v>504</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="I22" s="3">
-        <v>105718</v>
+        <v>668.27</v>
       </c>
       <c r="J22" s="3">
-        <v>800</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="K22" s="3">
         <v>124.893</v>
@@ -10725,49 +10501,41 @@
       <c r="M22" s="3">
         <v>15.172700000000001</v>
       </c>
-      <c r="N22" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O22" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P22" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="3">
-        <v>43124</v>
+        <v>471.11</v>
       </c>
       <c r="C23" s="3">
-        <v>272499</v>
+        <v>2514.7199999999998</v>
       </c>
       <c r="D23" s="3">
-        <v>6486</v>
+        <v>276.44</v>
       </c>
       <c r="E23" s="3">
-        <v>933</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="F23" s="3">
-        <v>107711</v>
+        <v>801.65</v>
       </c>
       <c r="G23" s="3">
-        <v>1025</v>
+        <v>12.49</v>
       </c>
       <c r="H23" s="3">
-        <v>627</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="I23" s="3">
-        <v>111696</v>
+        <v>779.19</v>
       </c>
       <c r="J23" s="3">
-        <v>918</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="K23" s="3">
         <v>156.28819999999999</v>
@@ -10778,49 +10546,41 @@
       <c r="M23" s="3">
         <v>30.645700000000001</v>
       </c>
-      <c r="N23" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O23" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P23" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="3">
-        <v>54896</v>
+        <v>402.29</v>
       </c>
       <c r="C24" s="3">
-        <v>36457</v>
+        <v>401.42</v>
       </c>
       <c r="D24" s="3">
-        <v>4988</v>
+        <v>30.36</v>
       </c>
       <c r="E24" s="3">
-        <v>813</v>
+        <v>38.74</v>
       </c>
       <c r="F24" s="3">
-        <v>14957</v>
+        <v>122.89</v>
       </c>
       <c r="G24" s="3">
-        <v>1037</v>
+        <v>9.27</v>
       </c>
       <c r="H24" s="3">
-        <v>983</v>
+        <v>9.94</v>
       </c>
       <c r="I24" s="3">
-        <v>12962</v>
+        <v>79.58</v>
       </c>
       <c r="J24" s="3">
-        <v>767</v>
+        <v>5.25</v>
       </c>
       <c r="K24" s="3">
         <v>86.490899999999996</v>
@@ -10831,49 +10591,41 @@
       <c r="M24" s="3">
         <v>11.734999999999999</v>
       </c>
-      <c r="N24" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O24" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P24" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="3">
-        <v>4655</v>
+        <v>520.03</v>
       </c>
       <c r="C25" s="3">
-        <v>25932</v>
+        <v>349.17</v>
       </c>
       <c r="D25" s="3">
-        <v>2141</v>
+        <v>30.36</v>
       </c>
       <c r="E25" s="3">
-        <v>0</v>
+        <v>38.47</v>
       </c>
       <c r="F25" s="3">
-        <v>5985</v>
+        <v>139.88</v>
       </c>
       <c r="G25" s="3">
-        <v>997</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="H25" s="3">
-        <v>996</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="I25" s="3">
-        <v>6819</v>
+        <v>147.33000000000001</v>
       </c>
       <c r="J25" s="3">
-        <v>503</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="K25" s="3">
         <v>122.2186</v>
@@ -10884,49 +10636,41 @@
       <c r="M25" s="3">
         <v>10.963699999999999</v>
       </c>
-      <c r="N25" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O25" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P25" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="3">
-        <v>51859</v>
+        <v>336.58</v>
       </c>
       <c r="C26" s="3">
-        <v>39764</v>
+        <v>366.52</v>
       </c>
       <c r="D26" s="3">
-        <v>3989</v>
+        <v>29.91</v>
       </c>
       <c r="E26" s="3">
-        <v>131</v>
+        <v>37.78</v>
       </c>
       <c r="F26" s="3">
-        <v>18518</v>
+        <v>166.71</v>
       </c>
       <c r="G26" s="3">
-        <v>999</v>
+        <v>9.85</v>
       </c>
       <c r="H26" s="3">
-        <v>998</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="I26" s="3">
-        <v>12964</v>
+        <v>97.58</v>
       </c>
       <c r="J26" s="3">
-        <v>217</v>
+        <v>10.3</v>
       </c>
       <c r="K26" s="3">
         <v>73.212199999999996</v>
@@ -10937,49 +10681,41 @@
       <c r="M26" s="3">
         <v>30.786200000000001</v>
       </c>
-      <c r="N26" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O26" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P26" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="3">
-        <v>52072</v>
+        <v>330.29</v>
       </c>
       <c r="C27" s="3">
-        <v>20802</v>
+        <v>313.56</v>
       </c>
       <c r="D27" s="3">
-        <v>4054</v>
+        <v>50.25</v>
       </c>
       <c r="E27" s="3">
-        <v>956</v>
+        <v>38.67</v>
       </c>
       <c r="F27" s="3">
-        <v>7981</v>
+        <v>103.73</v>
       </c>
       <c r="G27" s="3">
-        <v>923</v>
+        <v>9.59</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>9.92</v>
       </c>
       <c r="I27" s="3">
-        <v>8943</v>
+        <v>82.02</v>
       </c>
       <c r="J27" s="3">
-        <v>404</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="K27" s="3">
         <v>142.94</v>
@@ -10990,49 +10726,41 @@
       <c r="M27" s="3">
         <v>10.210000000000001</v>
       </c>
-      <c r="N27" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O27" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P27" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B28" s="6">
-        <v>58254</v>
+        <v>414.01</v>
       </c>
       <c r="C28" s="6">
-        <v>637268</v>
+        <v>6048.92</v>
       </c>
       <c r="D28" s="6">
-        <v>35906</v>
+        <v>527.5</v>
       </c>
       <c r="E28" s="6">
-        <v>1995</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="F28" s="6">
-        <v>570321</v>
+        <v>572.67999999999995</v>
       </c>
       <c r="G28" s="6">
-        <v>1995</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="H28" s="6">
-        <v>8975</v>
+        <v>99.13</v>
       </c>
       <c r="I28" s="6">
-        <v>559843</v>
+        <v>5107.6099999999997</v>
       </c>
       <c r="J28" s="6">
-        <v>3988</v>
+        <v>33.47</v>
       </c>
       <c r="K28" s="6">
         <v>170.74459999999999</v>
@@ -11043,52 +10771,41 @@
       <c r="M28" s="6">
         <v>20.252700000000001</v>
       </c>
-      <c r="N28" s="7" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O28" s="7" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="7" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Q28" s="7" t="b">
-        <v>0</v>
-      </c>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="3">
-        <v>49439</v>
+        <v>385.66</v>
       </c>
       <c r="C29" s="3">
-        <v>340091</v>
+        <v>2567.64</v>
       </c>
       <c r="D29" s="3">
-        <v>7977</v>
+        <v>280.87</v>
       </c>
       <c r="E29" s="3">
-        <v>999</v>
+        <v>10.33</v>
       </c>
       <c r="F29" s="3">
-        <v>106713</v>
+        <v>878.3</v>
       </c>
       <c r="G29" s="3">
-        <v>997</v>
+        <v>21.59</v>
       </c>
       <c r="H29" s="3">
-        <v>997</v>
+        <v>19.690000000000001</v>
       </c>
       <c r="I29" s="3">
-        <v>102727</v>
+        <v>973.28</v>
       </c>
       <c r="J29" s="3">
-        <v>997</v>
+        <v>45.84</v>
       </c>
       <c r="K29" s="3">
         <v>147.1557</v>
@@ -11099,18 +10816,10 @@
       <c r="M29" s="3">
         <v>33.336500000000001</v>
       </c>
-      <c r="N29" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O29" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="P29" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M14">
@@ -11118,16 +10827,6 @@
       <sortCondition ref="A1:A14"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="Q2">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="0"/>
-        <color rgb="FF00B0F0"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A2:K29">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
